--- a/MyHashTable.xlsx
+++ b/MyHashTable.xlsx
@@ -1,48 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hachidori\PycharmProjects\HashTableProject\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC186F2-674F-4038-BDFE-E31959E08C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10800" windowWidth="18615" xWindow="-20475" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,26 +44,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -369,20 +364,3386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:C199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:ef5914e314b946699b029b34650bb18a</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b'20'</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:fc6bac9ee32441dfa3caf9468a5c854a</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>b'75'</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:ed895dfaeee64e429193b5dd0b02f0cf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>b'23'</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:15584fb885cf492ca332c5cec39e2c32</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>b'42'</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:de069bd148ee4b278deceaee43cf62c6</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>b'15'</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:d184e4f10357405bbc7e8516b7ed674e</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>b'57'</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:eb56b65cc68e4ac79c277c8d1ba52933</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>b'28'</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:cc4e29af0cdf436f9600a42a121dec5e</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>b'29'</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:d5d3a76541ce40699ed1568d8f5ae54d</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>b'26'</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:f5c6d7fc6b184f3d92014f6e983a688b</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>b'65'</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:47b248feab0942769dececf0005924da</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>b'11'</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:ccb91fbf3dfa4a4ba5443fcc8dca0b89</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>b'38'</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:219d702588e74e0ea1cd624414d1e0a2</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>b'36'</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:ec6bfe4fb6084c63b2fabc1ac6bf1ae3</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>b'87'</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:bfd3b3f7f7fc4401977ebfbd246128bb</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>b'12'</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:abff9487cd0b40fcb3c3608f0f5023ce</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>b'34'</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:bf4e11f89a094598b27de78c6aa044bc</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>b'13'</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:9e40e91268a4409694f3c63a1c3e4502</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:d38e497876584358bcc68c72e28123f6</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>b'88'</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:2734e600a5c64e95bc4c82ba4aad1e9c</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>b'10'</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:2a93a261fc584b25806bb96a86199a73</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>b'77'</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:5ab17a05461c4c8eb6df059ab85ed01f</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>b'43'</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:d1883d16b1a2438a9e33e521e9e6b1f3</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>b'54'</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:c7c9ad356de1409bb83957f70b750ecd</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>b'99'</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:66b205c8f1ed434fb714e8059101e924</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>b'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:847baa8165874403acc0bd2fdb9c314a</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:c342bbe1dcdb4e1484d51cd62957a727</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>b'71'</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:a9e7abf75d9d4f6e83f6fb79807eb30a</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>b'49'</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:ae3f8fb6b7c149019e79208be227fb29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>b'90'</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:c73b9eef2bce466baa6a852f45a6a1c6</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>b'52'</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:201c6036fe7f4104ace9134b82bce456</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:6bdfd99f52cd4239832242245cec36a4</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>b'99'</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:3a027041557f401d8d992801ee8686bd</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>b'50'</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:3a0705b09d2444da9d75cb9eccb445d7</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>b'73'</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:7c0d7b97899c4d2c990bdb089c168043</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>b'15'</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:f75b99d44c9847e8a4748b5588a0c788</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>b'54'</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:427744c7f94c47e7bb52e8369694b991</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:dfd8ee3378f0410f9e45bd39ea14b797</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>b'19'</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:0115f6be428e4b888c435c9f05b3cbdc</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>b'87'</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:3c9e070e0c6e4dfda5afb513bdcdc62c</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>b'53'</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:0f6f1112db9a4cef9d9ae96f1c31936c</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>b'74'</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:aa79bc8315d44cab9e6d1a262cf1b7e5</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>b'51'</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:db25792d2ee547c6ba630e1da92dd3e2</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>b'10'</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:388f2259db60438a937c0dc4a17499ac</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>b'2'</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:e36bdba8c9fc4ca9bfed11552543e699</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>b'90'</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:b3ef10d09e7148aa867ba62de6ca8287</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>b'25'</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:8c6349db696a4e51a23d5fa3adceff20</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>b'83'</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:bc42508299f8413897d890b46f7ec5e4</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>b'97'</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:0129d57f1a5d4f4cb21a2ebe41b1e632</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>b'49'</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:69486796401043fc8eded348a6ccb91e</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>b'32'</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:2daf1d92e99447ec9941cff3a3c7052c</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>b'14'</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:912aeb3f10fe47ce9ef88603409676c6</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>b'28'</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:5e5003a1d4754c0487ef1620e844a225</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>b'29'</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:3e03d86f19d64356a43e3599da7cfd47</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>b'59'</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:789d4ccf2aab47e59909ecc8951f80ea</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>b'75'</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:0c2b27e951a64463a9574d7b41286e70</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>b'1'</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:70a33b0a2ac44ef684b52a2a8c42e10a</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>b'97'</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:f2a6642fd863430cb5a817015637fb80</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>b'72'</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:08b36162c5364f23877dc3528332b5e1</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>b'59'</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:521d1f26ed9a488aba4623ab269ac5a6</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>b'14'</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:d1931371cc9441aaab0c6e0f5295b0f2</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>b'51'</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:d24a7af5e9f64ae78244686ebd99f6e2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>b'11'</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:d7e76ea43d084630b6455abd5520869f</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>b'64'</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:5cc2c7e3c619466facd37484a2ba6efb</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>b'23'</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:b2ba031a6c4442e587e628437505881a</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>b'3'</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:78262fc018af4a95986a6bcf6c22b77f</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>b'47'</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:f495acd7bb694c1088c51295c0dacdb9</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>b'3'</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:b4e4c7ba43784450a8bc0dc8de8a9ab0</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>b'20'</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:7888912c1c1645e7a8fb3d852b704f88</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>b'27'</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:1623f8724c5d4f5788c32208b108e724</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>b'46'</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:1cff9c0e1aae46958c19a78e4951a774</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>b'6'</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:7db112f468ea4205bafef1c945a9a016</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>b'24'</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:caa0db96faf244888599cfa497969f1c</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>b'15'</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:4680bbefc5b64e08b2e92983ad9fdcdb</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>b'22'</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:3f3c493c5f304ef3923e617b1422d975</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>b'95'</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:30d1d384a57b4257be65c9ea43792885</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>b'40'</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:c8d95bf545194519aee48da62866d66d</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>b'71'</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:0ca827f0918a492c9e2303e95d69b0eb</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>b'29'</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:331e896e9a8346b78acf14863ce70a6e</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>b'81'</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:6a51a9c782ca41fa8ae77ef7a16deee6</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>b'77'</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:86fafcdef306422ab8b1b5474bb68554</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>b'7'</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:19a590d0ab214e909a016eca6f12396f</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>b'52'</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:ca7c6f2d3f084d25a50c9986ce4fa2e1</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>b'90'</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:f01c58d90db34f2e9e4fedf34d8c5925</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>b'14'</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:468dd89a095743f7a02af84d63164edc</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>b'81'</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:6a7d56e901a440e6aab90460ad6f4d4c</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>b'11'</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:10d195a5e45140beb448957d253a2dc4</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>b'7'</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:12360abf11764cddbb9a91a0be8ae64e</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>b'24'</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:ee54149eaaea4d0c859d45ff146939c8</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>b'38'</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:06a5b0b6c8374bca941d78ed80627132</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>b'37'</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:8b5469aa67a04194836e26149d301b8c</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>b'31'</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:bbac2d64672d40d891c0b0495d1b096c</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>b'87'</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:acac10f8a7d24b26b5fc122f1790438f</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>b'38'</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:fb20da652c8748c4a7341f3ddb100980</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:0d3bf570687a467998e6537bbbcf3794</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>b'17'</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:9bca91c2847e4626ad81c7ac39d8ed3e</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>b'98'</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:a98a5dfd801a415f9c8959786428cc16</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>b'16'</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:2922986d5cad43ae8831ffad6daa19e2</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>b'50'</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>e3b0c44298fc1c149afbf4c8996fb92427ae41e4649b934ca495991b7852b855:4a71741fab8d48fcb9fbdb7f0cd571fc</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>b'75'</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>97d59f1c1c0c51da14bf00ba847bfcb6cab286533061b79d0115f2574ffeedd9:ba51c1e4311b4c97923626144213ceb0</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>b'3'</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
+          <t>f52ad00ebb51752a7d828712aa1e2364673c2b2630567cfdcf792e3656afd9ef:50d05bde512e4da39102edf3b830e30c</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="inlineStr">
+        <is>
+          <t>f8e45d281ce30a588bcabf1b662ac7760213bbaa59e4d0a38231e53f17584048:b212c327aa344149aae5586d397a843e</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>b'100'</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="inlineStr">
+        <is>
+          <t>4fd079f0398e61cce2f4506831cf8d985ed5f34b20edea702d4ee9978f972ba0:e4f27419cb8d4c25a982ba724df2123c</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>b'52'</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>44ca6e05a2821ff53115a38ea01e4c9b88a587c8aca03e7a9062efde081d267f:38930564147242108f58ed26fa50c13f</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>b'4'</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="inlineStr">
+        <is>
+          <t>f93fbbc4d1eb4ef2ca1197c64c0b3f14af61cfa0c4c9f6f05a6f001dae7bf4bf:13b9bdfacd4745a7b5c2666806c8ba8c</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>b'4'</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>429348f92cf3ee6f5e4f1cdfc4243a9bbf4fc8a72aad3bf821fd442de6d4417e:0a8063441cf44a45ba69afa457c2cda3</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>b'89'</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>9ea5a9069c37a0c95c1cb3db70717a8b50c8f5aedfd52dd97eceec27a8723ed7:0917920484d54b00ba96ebde18c16459</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>b'86'</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="inlineStr">
+        <is>
+          <t>25ed1ad8883fc2be92dccaadad838789da4c12936579db5f6989b3075067422f:61b261f0938d43d2ac27326af416e529</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>b'15'</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="inlineStr">
+        <is>
+          <t>7cecc512065fc81a71e7d0b397dcaead10694e7046492f4926c5534c46a80bc4:c85a2572feac49f9a1f56b214a9052a4</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>b'53'</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="inlineStr">
+        <is>
+          <t>3d8fefef4f81a463db17cc8c1189e107a8b3e242fd2b550b3bf2cfe88c8da91a:0fc604ed93e44ebe8b520d585c739dfc</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>b'80'</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="inlineStr">
+        <is>
+          <t>a9c292d87f62575d5e2685941e66caaaa287105df648acf5868f84c351523070:aa2884aa6b794c798a2cd1ee48db2f04</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>b'61'</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="inlineStr">
+        <is>
+          <t>c34f2c80d13354ecb976be3493e1f4b2584bec3ba266d893fbaef014f7a425dd:44317070f0aa4a8e8085caa5cc5ae26a</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>b'40'</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="inlineStr">
+        <is>
+          <t>21e1efd714267560979cffc1a5ac91dc8997d88a43fc33008f8fbd11d8354f96:1e7d14ceb2614bf8a47c20cb4d100139</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>b'98'</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>7112620a7ce419adf27bd94b36ed021061519aa6915c72a92a5153241dc1c9f6:5bb7553418514fd089c577a3169be672</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>b'9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="inlineStr">
+        <is>
+          <t>a7b6c1dfec2e52f7c4ef3ef10a1f899dfc2bd4e5762fa8e96796132f36ae95e2:a0f9607c27994c1a9f18fea0d6242f0c</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>b'35'</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>78e9465d3c72a044baf8aae94717483fe3bac7ff8a60feb3ce20f4eea466215e:24918d6b1ff9468abb4f3e84feb01b4a</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>b'78'</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="inlineStr">
+        <is>
+          <t>be7e16caa761ec7f46544fba6fe8b55de1cd7ce169919e18bc68d38c70bbcefb:9358f49f53244e859709f7905af9beb7</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>b'32'</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>d245705622ed7b75f42e69e43bc1a328b99e67b87763cf4553cf2815e75eefc2:d01430c0f01946e89add7864811f663d</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>b'64'</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="inlineStr">
+        <is>
+          <t>a93aecb4baf6dc7b42733791db42a667371093c7affa53e590a5e11a6f44e868:f913fbef9d8b4d6ba5a6a7a62e7a39f9</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>b'31'</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="inlineStr">
+        <is>
+          <t>ef7fb7a224e9456dda159bfe96f662ea43aaa4979a95a6052bc42715fc9ff39f:605ce3bf723046c9a6379d50d04dab39</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>b'56'</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="inlineStr">
+        <is>
+          <t>a60a02950075e7129b6a3c5d4a5aa4012d2734e67c7b95fea87537048f1b1a96:c849945899be4c609b4d10e6665b8e12</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>b'43'</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="inlineStr">
+        <is>
+          <t>535b7a5d0249d6e22eae03499b4bea9a23447ba58b38e12954a7facba6978903:db735bff75634ab69642f80f5bc68df2</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>b'95'</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="inlineStr">
+        <is>
+          <t>640f9102d7ef74ffaace098ff6a8dcbf9006c00ce72cd8210d04c23d2bd00063:6138c68009d24da3bf3a742a989085be</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>b'35'</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="inlineStr">
+        <is>
+          <t>3aad1e628d661413aaf679187835cbace98e71d8e431c4971e5f7a13e1229c72:7f954bd63980400782d502fa4101436c</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>b'87'</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="inlineStr">
+        <is>
+          <t>4fd4813d20fa721c41d5ea97b964898c43eda2439613f4c93595807fd7a277c8:a0f72e768cdc4180b47d3c04a31d40a6</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>b'27'</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="inlineStr">
+        <is>
+          <t>78f3d5f405ae1295b5017856d1950214bf0394c85666188ee813947174047ed0:489845cfae2d483cb1340d776086c0f0</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>b'36'</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="inlineStr">
+        <is>
+          <t>f59293c14284ea0b570052d7913a8aa84e67a0ebd599eae69feabdb3438c062f:395dd63e360c46098ffaf3859524d7fa</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>b'64'</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>e2c049a1361b3c0fe68e3236dd442d36352b8251086cb6a0e37682b309bc47b7:ae1f8a14241c4f66883800dbd9e012c0</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>b'11'</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="inlineStr">
+        <is>
+          <t>6c906746816c72519af35941512d341626f9700b88b63844a76be89b1b83acd8:22a4078df04647fb9c10c88a588c05a7</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>b'20'</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="inlineStr">
+        <is>
+          <t>5af83fc4c4e3b5dc4c99648931331e11eb21784cf335d7bf954d3f996d55b9cb:7e5d6ed1dbea469680ee4cf261eeb914</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>b'56'</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="inlineStr">
+        <is>
+          <t>2c2df6837d57de5bcdd4fb2b0cd2c1427edcee3c66bab1e9299b98086274a115:1efd03d02abe4996a8e1d056be70dcf6</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>b'2'</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="inlineStr">
+        <is>
+          <t>d0bfe17e8e5f29bef7e634ddf57384aa17a948065f8f51b34e81cb124e8abe34:cc587acb931e439b96134d31190b0e34</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>f60fabed95ebd8dd720034104027c27996bd4d4e7fce8beee91721521cda0563:81598d18e9824a4ea86a2e6576750235</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="inlineStr">
+        <is>
+          <t>33f4f0c9677b5bc2492c59d875309c3eb79c7c488cdcb98e2a1552a4877f917b:74621b20374e4f58b45544f01efa7d84</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>b'53'</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="inlineStr">
+        <is>
+          <t>990b7698499b8b9857cee3c8c0e6346ff0cbc67bc924027c58ab1fe686be6e02:46fe6c2c69c94f7f8a7b0f5ef8afe087</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>b'78'</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="inlineStr">
+        <is>
+          <t>c2deb9a686832a67ff1b229842f37702f03b8fb0e00dfeea0abbb6c9ce304785:1ff285a5864e4a0f975405aab81c35fc</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>b'33'</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="inlineStr">
+        <is>
+          <t>29f0f4f99245706d3eb6fccc0ef58b82965aee2c496736a781ecf6ae7deed7f4:47ffea371baa4aab9b152a1bccf21350</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>b'49'</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="inlineStr">
+        <is>
+          <t>a7bd168933df7462c0799b6b31a70e860ef8ac8a689cc1da40c8fe413b5a9d0d:17e4c86ca648442c9d985e5d28f7b61f</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>b'55'</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="inlineStr">
+        <is>
+          <t>55a762cb2bdf0ced72d264efa9bd0868c4cbf37addbf10c47bcc61509922280b:1ac74a69768e44ac9172a4d14fa692d8</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>b'88'</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>fdd2e0f0d740202f09ce6511fc1f5489f62979e50d4e60160576a34b112e8e29:9f1012d9434f4be996bc529a022eae7f</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>b'29'</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="inlineStr">
+        <is>
+          <t>ba9d7977e3c33bb8e45dec7a7f0c77100099ceb38371a54ab6dd4788ae1439e3:4692b78de20b47e88dfaf6085ed4ff4a</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>b'21'</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="inlineStr">
+        <is>
+          <t>68b1fdc7c22362314002c00f10828d6853a39fe88ddddedad0b1d5895b35c441:d3b8f68defb1465f9303be53e07b3f18</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>b'52'</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="inlineStr">
+        <is>
+          <t>0030ee4d41a4e8799a396b129a9bdcae6e5f3facd88d24e193f0f4a3bf54c91d:5557bf517c874798be4e5ff3479be69a</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>b'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>f58055176c347540aa942046e8d62be6143ef15dd014bf568726b96dea5bcc17:818e7dab017e491fb178e76cfa1ee59b</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>b'25'</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="inlineStr">
+        <is>
+          <t>38a646885f3d8ef43f502219fced8ca0d73d5952c149cac23ce6b8422e189e01:ce1db7ae36f44369a71da4e1a394e1a8</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>b'2'</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="inlineStr">
+        <is>
+          <t>73931d00bafa9c1dae8fa9c2bca4ad84b17adb6d8f3411ae91e1b575b1ee7c72:55164ed01b5e4cda8a90d8da68fb1173</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>b'59'</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="inlineStr">
+        <is>
+          <t>4b19a424da4fffc2b8aba996b819bee64612808b51f2d21c7d1d36af103151d1:617735a34d3b46ac89139fdb93196b7b</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>b'81'</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="inlineStr">
+        <is>
+          <t>07551e81325fc5d36e29b203354c30776a1cc285c8a6aea1fe29928b4fdfe269:9cab8f7385244171b475d3d9a7610dc5</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>b'28'</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="inlineStr">
+        <is>
+          <t>79df762947572f851e2b7a34b4346bdc3f34831dbc92b792e69228cf821cb067:7c35fa301cc3497ab0f3cbac401f9525</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>b'54'</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="inlineStr">
+        <is>
+          <t>29d35a420a32f38d72d5b8e317110de09a0486be044cd9a82b85fc9c6ded21ba:5376401174d04eab9d66aa3df1bf2507</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>b'42'</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="inlineStr">
+        <is>
+          <t>361e90d940cc7572264a99cc31b9bedd0604aa055830051da67c15ed4ff54d68:4183f5da098040f3839a46cc14ae500b</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>b'16'</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="inlineStr">
+        <is>
+          <t>c8cb3aeb8355b88cccf5db183dd68e0fee76be1acf539b67f40e5541e5d2588d:ee8108bd1ce049829d4d053b38fa50ef</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>b'49'</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="inlineStr">
+        <is>
+          <t>a85d431de185d965cd87a36ed53ee76d320d673cad07b9d75d284aeced4f7996:75540c33c058486492b4cc9f520b59e5</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>b'60'</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="inlineStr">
+        <is>
+          <t>563b860da0b180b208fb35258d7e2d3f783de9b30cd38701bcca5641632a2717:f67604afbe3143c8adcc7b93776a07af</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>b'14'</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="inlineStr">
+        <is>
+          <t>0beac648606dd0cd0b7ae57f75ab174444a190fec5b5c0f04d640424599d805b:f10f7656ae624a148db12fd43b2b72ef</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>b'42'</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="inlineStr">
+        <is>
+          <t>c611da956de2c3481ca7177f768d8557cdaf543bbbea55fe68fae30386152973:b63b17da408c42658d4a0e27504998bf</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>b'21'</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="inlineStr">
+        <is>
+          <t>5c0745da1ce06fb9a2c8410b918420a5f7334be3d353d128dfdf4d0c2b22cb6f:5fdebd321ce9439c8b42baa8a49f194a</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>b'44'</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="inlineStr">
+        <is>
+          <t>f99fc5aeb21c385cf40706f7cfa42e3a71cd6e32890609a0516887d6bbc625dd:1ba9cf3ba0244040b4b427a26f6b3e61</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>b'2'</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="inlineStr">
+        <is>
+          <t>6d9a35c26547eb0881b7d0ce8c20ef75dfad44c062690153aec50dc776cf14f7:afa17f57267747999832683d224194dc</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>b'16'</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="inlineStr">
+        <is>
+          <t>ffb50dcf5dbedcba601fb4a9d3ec9d55c84ac508ae34d785e55d57b98abdfd00:e35f9917c66049898b478b757aee58da</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>b'5'</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="inlineStr">
+        <is>
+          <t>9385db142a4d379e98a5200de5862a712f83ed86b2799cc65798b718fe2bf975:bf1a7429c9a94b188af558a01eed0fd1</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>b'82'</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="inlineStr">
+        <is>
+          <t>cb3712d015c670b21a55953b3400e240d64e12aee28211b42ddaa20dc2e203c9:d7de78b6a5934a0fb4e1d6f06a7c6bce</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="inlineStr">
+        <is>
+          <t>43d9a95e87cd50af2a901ea03de95ad61f21c63fda06c2863da9e3084f3cc292:26e267c115494d7f9219e114fcd0515d</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>b'64'</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="inlineStr">
+        <is>
+          <t>1bde80f734939287d61ba13d20f67f38573403b0d84ca373021f1a34643f8e9d:e0c2f39c819a46c08c7ad97fc9fb901b</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>b'16'</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="inlineStr">
+        <is>
+          <t>719b84cbbe1496d179dde022dc2ed1b9dc85acf6b3b485eb3412a07daf68cf3b:ba38af6f07174fb4bf62895fa265fe82</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>b'5'</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="inlineStr">
+        <is>
+          <t>9e39f65eefe030ea2ebd0dc467c93b87ab55024fb8c0e94be3b63e54beb4de00:ca3e9986a83149228ed3aa522d0f4eb0</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>b'47'</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="inlineStr">
+        <is>
+          <t>5137bf71c6e3deff53fbc4e5f03987edef2f45c7aa663f1be5e4a6a176d94026:826d94794b2c42a098996dc1e8ad7fc5</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>b'40'</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="inlineStr">
+        <is>
+          <t>762654a35cb0d37d6f87f0aabbf76bd8bbc6f196f1b50e4460e966cadfcbb685:a91d4efe73114c869823fb05288a1146</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>b'88'</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="inlineStr">
+        <is>
+          <t>be7a7e689d03fa270c5e79c155b3e31bf18169000db827ac74ae03da0c13ec98:cb88cda335dc44f9b7d3de5d49b6999b</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>b'32'</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="inlineStr">
+        <is>
+          <t>7a5b8ed58d8a00dbe6f295a3e484e66df3c1475daa8f5cb516344820d8ac5461:b0a40fc223f64674ab325f89751bfb54</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>b'28'</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="inlineStr">
+        <is>
+          <t>4933fde4774de31601a405b8f23890efae971b2d0dc4631e76bfe36fe39f7e00:74bf14ac62c248ae89a580fccb05d43e</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>b'68'</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="inlineStr">
+        <is>
+          <t>5e2ebf1b5da449e19d1a1388274390ac80f52fdb9bfce9d03d00248277542e54:e78d195c2d5140c38d065091e02e65de</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>b'47'</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="inlineStr">
+        <is>
+          <t>f2e76bb17af5381e4b844007fb9ded7548eeecafadc4ff08f7e9b09159ade976:37dde5a17d9443d38439f0d73b031c87</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>b'54'</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="inlineStr">
+        <is>
+          <t>86fe6c97efb4737bf1621ac953265b927fc4d668c195b0dee100dc6df064acbb:312416a4ce8248e7b26945efae750ac2</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>b'3'</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="inlineStr">
+        <is>
+          <t>83e0026b4ff53655e60a7da2711a5402d7ed13229a65ff4b266e3e00ecf448db:cc76580376ea4e719fa2598a1266920c</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>b'34'</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="inlineStr">
+        <is>
+          <t>d88c0cc3401a83493f0031b11929a4698984c741e13309ab8768655c5415641a:e2eeaaa71b57475eaa60f2fda01368e5</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>b'18'</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="inlineStr">
+        <is>
+          <t>61e80dcadceef518852bbe04e8617807e5970ba6218f5d7bcc27fcc64af361ec:b6e2b6817c034720a1f959da8067c830</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>b'19'</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="inlineStr">
+        <is>
+          <t>76571fec4b26572f219b2ea8a44f1e5fd7f9b84036c4f783af5487ea351306ea:e8303d6d3e0b4de4a8d79815b15e11e3</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>b'63'</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="inlineStr">
+        <is>
+          <t>9159933ddc48ffa2960b6e8e2ebfe7a5845caf0d9220d9254b6ed5a285d73513:00ba6b60f8d24125bb33b29576cf5d5a</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>b'47'</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="inlineStr">
+        <is>
+          <t>277a99e66088d21d669c08d0404cb8e9bbf045e0aa7d2e96691d0d36e217355e:8dd5413bcdf44dd5aa12173e112eabcd</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>b'32'</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="inlineStr">
+        <is>
+          <t>14e74b11d1a8b49762c5423f9b14726543ecded7515b4cfda23aaeb27b4447e7:e8ef9761dfa840a88fe67dfaabb83910</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="inlineStr">
+        <is>
+          <t>c94b0aa11f1a15107503d14b1fd13009048b3ec6d265e607190f091fc4b88529:d76cd9300b8e4ecaa6c86131ae9302b2</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>b'34'</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="inlineStr">
+        <is>
+          <t>7939b8b8ad9832080e9620e934377d1aaed371aae7c46e7595459d2833a4b2db:06955b97436847688acd3ab913f606bb</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>b'53'</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="inlineStr">
+        <is>
+          <t>eea06d7aa672c157b685c1e535b4ff965265142d74dd5e986d6a49d746b79288:011d5a12cea44d97990b6b889b454354</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>b'8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="inlineStr">
+        <is>
+          <t>c36797812856cb467787f7c342b36c79107b38c2a41b97158d9c17308bafba96:bf2b7cf504634d93af87f744f11cc943</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>b'73'</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="inlineStr">
+        <is>
+          <t>a60422b776f6acebdaa3b823ba119be4c067e4aa5851e7d4e6262d50903ad309:5f8895287ba74643ba020fdb1d57bbc8</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>b'54'</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="inlineStr">
+        <is>
+          <t>52e70e657f2054e6160253770128649dafc765318a9c3611da203debb88109a5:8fb3524b510a46c3aa67b02c299a50f8</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>b'97'</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="inlineStr">
+        <is>
+          <t>9a7ff69e7407ccba6c443e672d61177c9882fe3b4f19ced4cee50e9b98beebb7:f2500a833a2d4ea4994a7de0100521aa</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="inlineStr">
+        <is>
+          <t>bb9dd896ee107f8e40634ecd1a4da21cf5f29ce007be8b3868bae343f78a9d18:08ba23af09a14947b0099cf4a2a63a44</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>b'5'</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="inlineStr">
+        <is>
+          <t>c90e313bf8fd44ac4d8ec8a39ee666892a65b962b05a5bb34da2b07dc23c9c3f:9b2e6a7f9d1a49a0a5a0e51c782d7238</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>b'70'</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="inlineStr">
+        <is>
+          <t>91d41e08cbec95b1ee51e54d50b60d043e140939e83f7a326a258c1a81b72223:7663d83f02cc4c5b995e9f147a076fb9</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>b'56'</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="inlineStr">
+        <is>
+          <t>811f2fe0b9599025d3bac821e4a772c926b464909941863295be424284566dd3:fa70108399594875b6c58d2b1fbcd217</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>b'57'</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="inlineStr">
+        <is>
+          <t>8ee6faca2e89a385474033389518c6306ee2a26775de0cb22eaff1d366f7f068:92e53f7702394983907d7ec017d85c11</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>b'19'</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="inlineStr">
+        <is>
+          <t>ef4093f376dd41c95bff8db91cabb63be61d15831c8fffc762673e66a8e01f85:49a4b4a636524b448c25566d7af02107</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>b'34'</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="inlineStr">
+        <is>
+          <t>52bdd42f7f43bce991ff9a2a41ae061c7f67c1316998226cace2d3207cf6185c:fd484f0314cb44359d3308faa6ffcdf0</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>b'81'</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="inlineStr">
+        <is>
+          <t>962321d8cca99523fa38580150104082edc2e36e5ae4621937c453d8ef97353a:96abbe1cf90648088122775600e66a81</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>b'36'</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="inlineStr">
+        <is>
+          <t>bd42e361a05933e8cffbbd5e8f6a0b355a63257adee28b7f86bd4861f0b6604e:225fe50f28094bb8bd6dbf9fae3578df</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>b'24'</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="inlineStr">
+        <is>
+          <t>2af893ca8f4acf1c2f6a2f35a8ac53414722bde95850c119eafc84c23d3a6565:f8b4ca3a09f14dda855743365a0a1f31</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>b'33'</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/MyHashTable.xlsx
+++ b/MyHashTable.xlsx
@@ -369,7 +369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:C199"/>
+  <dimension ref="A2:C496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
@@ -3743,6 +3743,5055 @@
         </is>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="1" t="inlineStr">
+        <is>
+          <t>24edb82fe35ca81932a444c1d1b3c1a787711bbe1ef9b1b171d20a096f069864:5a810c339ba64278a28503421b8a0531</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>b'80'</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="inlineStr">
+        <is>
+          <t>fb77767ed3ce70cb9dc22aecf604e0ac5f001a06ca858d0520c5e7230410ce8e:93106371fc1d4965a1c8fc1b0299c43d</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>b'46'</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="inlineStr">
+        <is>
+          <t>b394f557136aa50b4855bbbdc47564f049db3f0533cffd218c5271b3876f808a:35541a372b3c4091a1755a74bd69a07e</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>b'76'</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="inlineStr">
+        <is>
+          <t>2a9cebc99d309f670d3799c21d4a93b20e3c443c8d15e03f8ba94312bff4f3f0:4eec56f9bb9640d4b1557382beb2458a</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>b'17'</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="inlineStr">
+        <is>
+          <t>078460dfa2ca30a0c2877f7094b051675a4c5cb4642ee573853e6a315062c8b7:921b18866ad64172b41a172ce6df5e71</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>b'91'</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="inlineStr">
+        <is>
+          <t>6d6343e0c649aa0d5544e3554d155ae5ec03761343f5630d875cdfbfbd5748c0:931024fe2156453f81f83e36050534ae</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>b'17'</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="inlineStr">
+        <is>
+          <t>10f0921926eb16f34a9327c2d2c06d431e8509b8a498ba97ee3cc0334bbd3a9e:3df34b47fdc64dc7bc4c00ffad4898bf</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>b'2'</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="inlineStr">
+        <is>
+          <t>e875c56ea6a072d9cc93938e474096694535790acbf1baca3ae770963705124b:31533fb7df2c4d8582e0ad254dd6bd14</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>b'81'</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="inlineStr">
+        <is>
+          <t>64ee4064dbc9e68a93d31ba65097780094f1bf133563c56fa1fa0aa5ae59ba3e:dfd942d115004c45a2791837e066dd3b</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>b'41'</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="inlineStr">
+        <is>
+          <t>c3894786d6b72ed2d05da1494f17a1e413b9cc4fa5dcfc316334f7960c01e338:edc91b07b656403fb16e76602835fe9d</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>b'57'</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="inlineStr">
+        <is>
+          <t>d28578b6cd32703bf460bfdd1c2c3597aed42fd03efde22cafe094016c4e44af:a2c97614ec92464da42259268ca85262</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>b'93'</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="inlineStr">
+        <is>
+          <t>eaedb69dd0fa95b2ec5d52f05dad6d734c2aaa8f668e005a7feaf578f1ca6405:98917cc33b024667880247656c1feef5</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>b'28'</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="inlineStr">
+        <is>
+          <t>f8db03ead1014a3e35640527fea5e2fdac7921f0feeb1e21f19fd09503ed8728:e9ee8a70213c403892df5fe48c35d5a6</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>b'49'</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="inlineStr">
+        <is>
+          <t>d13c84cf0184444a3ffd00b50c523ec568972f16596f0f28ebef5450d298b917:51c0d846cdf942d283ecd835c0480f29</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>b'92'</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="inlineStr">
+        <is>
+          <t>11b03c0695acd5a6de151d4c3ea811b84d2c0284e137e8f880a99c78f3282024:4e04a4d7d4974753bcef62bf106e58a6</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>b'69'</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="inlineStr">
+        <is>
+          <t>f895b12e11b2cae51da42ecb659639a9dcd53a4e95a6123731be31811b4e421d:5510043f6315403e9a9ffc8e86ff0b25</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>b'94'</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="inlineStr">
+        <is>
+          <t>14d981fb74026c8dab063a90af3246e3de4ce0eb93c8129213454a97d5e4cd08:170ebe2decfd44d189815876f4c8f6e2</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>b'10'</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="inlineStr">
+        <is>
+          <t>499b15ebab568112363622060d81742dbe718166eef545647f694dd45f2ba9c5:a48a8e67afdd45a0aea5d85412b72fb7</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>b'84'</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="inlineStr">
+        <is>
+          <t>ff361c56aa1eeb371c2be24a1ac98970a169e1a1cf3dac2c065734ad8f7e2b8c:fd3c50ea3c8041e0a86c8393362f1e99</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>b'17'</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="inlineStr">
+        <is>
+          <t>a1c94b5b7acdf5cbc5d4a129b1dc3b431d88883a54020fb947d3e2e1a639145e:fd06d8fc406c4d49a2e2afa75f68dedf</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>b'80'</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="inlineStr">
+        <is>
+          <t>978f787b498af93bec97347e61e8ad757990bdb8aefba5d218de7656cb440008:ed506227a5b64238aa6b0f866246b4a7</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>b'86'</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="inlineStr">
+        <is>
+          <t>06e1416013d1c1aa2e1d3e6cbee30d23f713325f98811143d5460455d052e169:98e9a2222ae841a087f68756f653ecfd</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>b'7'</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="inlineStr">
+        <is>
+          <t>64987cabd906a0e951ca998d1fef0f10330c49bfda343579f0d0464f7584f4b3:af771d50d1a54bee9f20f74b8a12c13b</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>b'54'</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="inlineStr">
+        <is>
+          <t>c9156e02012234115e6974c5b7a88985ba590aa032e14a724f46eb5f98226e6d:2405090f4d2d4a13bf551e99fa64e6da</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>b'82'</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="inlineStr">
+        <is>
+          <t>f3ca0f30e6ea4a19276347b3a5f8ca4b24af41c156eb63218e7f37ca45397e56:a2362d40fd3f4d37b6e16365f2446c9e</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>b'86'</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="inlineStr">
+        <is>
+          <t>643b715c6b9e2fb9344e0f258992196d24fa54091fba6080593bbe98712efe24:491a8d7202ba40bc8c67b9e994ccaceb</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>b'61'</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="inlineStr">
+        <is>
+          <t>afd1d35166f89eb6a8c5e9c727e58dd01c49d00a39bac29e53853af5e7c200ef:24ab23448b6a4aa0871d11b52494d85b</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>b'9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="inlineStr">
+        <is>
+          <t>e6e67f53dac6f69e4503b4c0e5c38930af3b07bbebc57c99d41d03a47d817548:a36be7aa862d47778463fa926cbaf4b5</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>b'31'</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="inlineStr">
+        <is>
+          <t>9a562abcac5a323ae3599366ce0a87d8168a065fea0283f98300cb0ded35d440:f7f1837fdabf4b43b8e7588a7a4e8680</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>b'21'</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="inlineStr">
+        <is>
+          <t>7c60a10a056e0926f191734ba6a9db706d939cbb85fefe10485a8e817ebaa60f:df29d8a361664fc9b8276c3a17fb362d</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>b'16'</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="inlineStr">
+        <is>
+          <t>105da52e2f34403711f45fea4bc33313195e1028342e38476ced02d2a434f5cf:553f2f2cf6194ce8a76c0d1a27aa716d</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>b'76'</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="inlineStr">
+        <is>
+          <t>01c5c60d394f3993403502df964bc36a83fbc9849c74912a0e41d63fddfc0fbe:aa9d578aecfa4f3cbcf9e90b2a98facc</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>b'6'</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="inlineStr">
+        <is>
+          <t>8d56bdb886942602bbab99695fd0fc785de8d0ac43461f263c199039d4200839:96c2dab0d52c453a9b51e4e5f5f52174</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>b'74'</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="inlineStr">
+        <is>
+          <t>a322d1e047f47c83f214a6d7765834ae675b0613f478f685f7cc3301dcc7a155:711a5198a48b472fbdcb9c13312ddb00</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>b'33'</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="inlineStr">
+        <is>
+          <t>06a981231eb65c10428a34d61f19a2c16c261f4befdafda484f78abea4c1b2dd:e9b3286579a44acf96bedc79c550b212</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>b'50'</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="inlineStr">
+        <is>
+          <t>3c042cd4bd952ee94c5c7946c717148af650d7a546f4686f2d6ad7bb95c80499:73b916b694d649af8f3c5f908ea1d22f</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>b'32'</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="inlineStr">
+        <is>
+          <t>91b524783ae2a5124c1cd38bf6c50cac15bbb62346b19abb07903358524bc758:be645e39dbba423b91c38ebbff8aa6f9</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>b'45'</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="inlineStr">
+        <is>
+          <t>d35625a4ccd63a62e233ddc57ddc8aca48d9db830985fcc095a63d311c82de76:951235755af245b7a282afe690e783f8</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>b'10'</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="inlineStr">
+        <is>
+          <t>691b18dc1b26db3bebab7bfbf5829b07893f139b75bb31cd8a6bdde6841b0f40:6b8dda8ecdba4be4908957028b157ee5</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>b'32'</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="inlineStr">
+        <is>
+          <t>e0b396c1d960569e0bec8c95e8b804f275bf85583c9b5805a5e54d0277075760:46f1db5d72824c9fa5b2983af68cb0cf</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>b'20'</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="inlineStr">
+        <is>
+          <t>090b3eb3e91b51f7e5128f4a904e40059e95c6fca02a4c3034ce35c28aecf1c8:ea211210298c438f9d47c8fd0f359135</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>b'62'</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="inlineStr">
+        <is>
+          <t>1ad1d1d8a72f613d7cad8e3c6fde8d474fef1ff3f8081b004b668a64da67b35a:1100456219d74cf7bf7dbd73bdd11eac</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="inlineStr">
+        <is>
+          <t>8bbd85c16ddfa3258d9c203c2556decb539f7f80434dbe4b460c81026a34802e:db7f8b3b4d91412d99e080fef8069f75</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>b'78'</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="inlineStr">
+        <is>
+          <t>3f616fe08c8e48a1c6f052bd041143e5cc33d85e55d9d4d469284817948b3aa5:a3b9210f915b433db0012d8193ad5369</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>b'7'</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="inlineStr">
+        <is>
+          <t>412d3b3905fa096e7531ab3be1e45697572d218a22759ec18518c991404c34da:57f7b7d93db044a5a9d903104b6fb7f6</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>b'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="inlineStr">
+        <is>
+          <t>c55eeced5144b11e65967c1786fb765642d383940e7895aec799206e9c5fabe9:eb9c6ad78a1440d2817ed4767b03e92c</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>b'85'</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="inlineStr">
+        <is>
+          <t>0ad9c6d904e74c4820eb5cf46647623348938cbecb5b630720f6ad10f1268ae9:03d0052bace545a4a023669716635f0d</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>b'15'</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="inlineStr">
+        <is>
+          <t>af1b95d36b56db31c3b44a0dc6194bed2c753aeb35808f3fcd9752341bdf8ae1:a1c2ad339d6b4f38b89d53f10107e232</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>b'62'</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="inlineStr">
+        <is>
+          <t>7b2455dc7207821acbea1f92a79438ea84bdde8215b435a42b05efec985455dc:d0b81c84695f4b5094ed9ef7521caba7</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>b'79'</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="inlineStr">
+        <is>
+          <t>18445e03ca24ea3d5c875354d116fe5c597a58a96a1c1d14e8e1f51b13374030:358decc329c24883bbe2fef37b154b9f</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>b'22'</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="inlineStr">
+        <is>
+          <t>d561e1fecb01be7f7bf6b3cc19d183d828ba8f3f4c9a80daceaeffcb26b40253:075b1b842bf749e98f2a3c3a7ad3c7fd</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>b'48'</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="inlineStr">
+        <is>
+          <t>c56979f7e739d9a12a4d25aa0731055b4cdb23f6e656aeb4350576f2be82ae88:baac5a4a6f7e4eceabde9c4ff2ff5d6f</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>b'80'</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="inlineStr">
+        <is>
+          <t>8b041c38d6c7f463f055d7940692c8eff2d62b856a8540f0f165e81ed9b7e6b0:6e50cfe743814300aee4fa75137c01d5</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>b'5'</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="inlineStr">
+        <is>
+          <t>7020443b38f7bb3a058ccf5c458e1b9685740dddef5531599b915edaa8798777:af866c8ed131496895ae53415f9b0023</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>b'47'</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="inlineStr">
+        <is>
+          <t>9927eee0c31a9140cd957e029bf0fa22accc86a1ff613d4fa70ddd3efc72af8c:40b8b6291eb64638820b31d7e045e8d1</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>b'46'</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="inlineStr">
+        <is>
+          <t>5365fb5ddb93b6bf4053b5fa62f2de1bafb88a17cbe50e1e958f7990d8ac4b78:98d0e7a8e243457db5bc5d1af2cb1b4f</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>b'100'</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="inlineStr">
+        <is>
+          <t>c2826e3f3f13bbe50a9e4ac338a3de384e5ac9f9090fa4b2c82183b8cb8e4143:e1d208769fd343dc94974b5f9242f86c</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>b'84'</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="inlineStr">
+        <is>
+          <t>397aa8fa8eb8786cb75176d05764965f60c373981c7403cbd3f628e14958e93e:0b5093cde49b4c2581064c4fba1e273d</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>b'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="inlineStr">
+        <is>
+          <t>e778bafccdcadc11c263e68902c8b3f8dabba29831934b9f75164f5f02fc53c9:5d06470f95ed4c0091dde381a0c04293</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>b'81'</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="inlineStr">
+        <is>
+          <t>c7f8d90681b608fb3341e37d9568cb9fd51369f3eff8f613f6d3ed1945d727a4:d42a1a9be9e54fd3878d618b57075240</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>b'57'</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="inlineStr">
+        <is>
+          <t>44c20003a4b358f9cc668fbfce3aa04fb43be66918be19c5e4712a33b2d733e2:d067aa801c01471db10a05efbd47874a</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>b'58'</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="inlineStr">
+        <is>
+          <t>1ebb83529ae5b0e8150d5529e477c7c50914d525b8d6d3ad3899172effcd02dd:86b621f449644ab9a8204b4026618d70</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>b'57'</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="inlineStr">
+        <is>
+          <t>26d50a183645cb8e02c62ca512539984bbb27d29e030f42d6ecfae0fa32039c1:1ba7067d3aa441ef991466ca0e0b5a13</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>b'17'</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="inlineStr">
+        <is>
+          <t>6285c74d610a71c8c2cf6da7e765bb227f4605a03dc4b01259ef33d0ec6e8270:e2f8ec4efdcf4ed2bb5084ef32a30faf</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>b'79'</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="inlineStr">
+        <is>
+          <t>a0e5a3e62759fa9ccda2130a3c0b1ed5e9b9057a9d81de723b8702cea048b7de:e9c606c3901b478e82fc2cee1354a1a2</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="inlineStr">
+        <is>
+          <t>b02f3c4429f8b0f2e2ab899e96f2630015e319bf78063dc21b2bc33498f6eba9:15768cf4ef0b425588deb8cf3d97ac50</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>b'55'</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="inlineStr">
+        <is>
+          <t>35ca2379456529cbc8ef66431d298a00036f2c9605d12b0d14998d598d41d14a:c7d58f7d205d4c19a2c1786100921e8b</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>b'43'</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="inlineStr">
+        <is>
+          <t>214e45e6f1ee0aa8901a59f2a475e40ff46cf13bc48fe8a88192d82b2667c4d8:3e990381ac574505a8de358f12f421a3</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>b'22'</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="inlineStr">
+        <is>
+          <t>cb2b022e6c6b5d4ae3da2263b312ed78d683cb4549d8a5f9d673b24484133cb2:45145de529dc451db967cfc5912f9e82</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>b'35'</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="inlineStr">
+        <is>
+          <t>535d0ba198dc9f3f991b5b7e2fdde0e3a81adc519f785e27f1682ddd3ee0fc6e:522f7c37b0ec4347a7c31089f4af14fd</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>b'58'</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="inlineStr">
+        <is>
+          <t>dea41350d67a85899a0371f94b68f30ad9c7dfab34006f94f43cd295ae50d232:0188c9909a804aff9ac411367f4fe048</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>b'50'</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="inlineStr">
+        <is>
+          <t>4998991024dd8070ff84dfdbf80a14b55c53af6d2863ff6376419baac09af03d:1a0815ff8c804ab3a712fd733af124bc</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>b'35'</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="inlineStr">
+        <is>
+          <t>2d6a7b16c20e11de29752cb10b50dcbebe237e2a996e65632e5c083e9ea7e43b:45c90bbde799470285b7905e372422b0</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>b'24'</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="inlineStr">
+        <is>
+          <t>d986c545152f8c39f29a5774256279377ec15d54dc7d5117fe96a000a261a8cf:0cad7f8f00914273b12904c3edfb4912</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>b'63'</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="inlineStr">
+        <is>
+          <t>b788f3eef1b6bfcc3d8cef7603d2140a8dcc0b8bfc6f55d3b76b611df6d833bd:4d0ae3185ed448f5bc1e1752d1303c10</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>b'8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="inlineStr">
+        <is>
+          <t>90460b74d27b99f85b92a165b7d1d35ca231df32f6fad85cafd5cee26354dba9:fdee4d20c03a436880a0438651e1baab</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>b'8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="inlineStr">
+        <is>
+          <t>c2bea8f36b967ca79f49513eaf26e165a5c5b76da0d39a6a3f213234729b04a9:78f33a2f7fc94d0bae9304f2959f7d32</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>b'12'</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="inlineStr">
+        <is>
+          <t>17c515bfa82abd73e3c0aeda512309993a41a97367a1f714ccc2a09970eee7da:8743baaf33fd4782817413755cff1d0d</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>b'11'</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="inlineStr">
+        <is>
+          <t>103d717e0bdd7c60e13d612e3a73d40d17cde90e6e4def7352b92ae2e3df5454:c1fdb3ab18de4d59b31dd42891986819</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>b'7'</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="inlineStr">
+        <is>
+          <t>239692888584c9b1cdf4ca30207eb9532a371f57d36e6d9ba084406766e384fe:ed4f23ffdc17453583122c25cd6dbbfd</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>b'45'</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="inlineStr">
+        <is>
+          <t>b6415302bd8eaf23b4614f4189940a396d4b4c3f80ef87f43dda9b33c193f329:8836ec19e3a6481cac4f667abe0921e6</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>b'2'</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="inlineStr">
+        <is>
+          <t>6cde14f83beeb7d0353302a50e74ee70c738a720a9a17f0eff89039d4cb9171e:eac2cf304b2b462786d5b418c76d8d5f</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>b'74'</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="inlineStr">
+        <is>
+          <t>1d15fc1be4a0f80bfada07870ac9461aa3552e089cc61b4233f80c4048ad7f16:cf34d096c5e441b19af62415489e2ebc</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>b'25'</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="inlineStr">
+        <is>
+          <t>f3d74eda3c4b128a0bd9cc6845e70debdde7c322ea14d2c41a27178bdb7bd66a:1b9ca9a432d443c8a4b04d55f92f2078</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>b'11'</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="inlineStr">
+        <is>
+          <t>b369f9a5ad78b9e1ad36dbf03b44c79c8298166c1c17e528d13513d3a8fd0d26:2df44ea3b0504c06a5222f0ffe967b3e</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>b'57'</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="inlineStr">
+        <is>
+          <t>ca0c39524d4763f0b120f2236c5d661212208004ddcd9bd6a08a4c7b3bad213c:0690bc2ab76542558c79a5576e8d040f</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="inlineStr">
+        <is>
+          <t>52e2c06ef7e8998721fce2838fa7d1af5c30ece906cb9e52920676435718ea29:d47222625cc24138919f203ed040fec9</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>b'11'</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="inlineStr">
+        <is>
+          <t>bbf236500827285139d632a056e20803b644e45e17a60ff700e6187fdf6df6dd:e8bcfc08d0f44b9bb06593488660d130</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>b'17'</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="inlineStr">
+        <is>
+          <t>3c004b8b232b1a9817e7b9344979779dfc26814bc5fa79b904bdab8192c6a82d:da460991cd3f4f57b258129e65081bea</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>b'29'</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="inlineStr">
+        <is>
+          <t>d1635e46a6c9231323501f4e984f496e1e46d411ae570223b6b27075fcc6c167:d54d806d2d174e55a9644a035ae467e6</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>b'95'</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="inlineStr">
+        <is>
+          <t>f1fafa1c9a1a3802a0715f9f1292cb716ab9c6e67d40150e4fd65b35db0ed59a:e587490c481b43dab7f912da62f4575f</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>b'10'</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="inlineStr">
+        <is>
+          <t>4bdc90564dd31d3d9d9e08eb2896010efac8309809f6e1ed868b4169c849ed4a:410a0ae4d7164cd48dc69e1b5e82b908</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="inlineStr">
+        <is>
+          <t>8d794327358b81c3e9f1bd2f8c9ca14c2c557308d24da983e20b69c60d6db7cb:5188ff9cc166465482cf9e80acc0f685</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>b'7'</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="inlineStr">
+        <is>
+          <t>732ec4e029dfcda8868b63b50b9a2f333c5f5a7d53799734ab51982fa5c38db0:a7b96d25bbc245469a4365018fe77811</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>b'26'</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="inlineStr">
+        <is>
+          <t>01b9bf169be23e9cab5cd8af142c9c0fead5095a4047684e4e293e55ce44ce57:f9d30310f6064936b3d44c36017f80d3</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>b'100'</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="inlineStr">
+        <is>
+          <t>acbf36825123a739e78c36e00f67bd72ec1d7f07b4ddd75ea50adf56fc2f5f69:9dcd42f4b4664c8e87ae7efb97e7ac0f</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>b'13'</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="inlineStr">
+        <is>
+          <t>c5460d9a0fc420474ed2cdd1277e54d8914dccd32620a1004a87bbcb422f255d:bf6733182be4479eaeb836ebc6b56021</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>b'80'</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="inlineStr">
+        <is>
+          <t>6ec678684667b8d4ed4a4b94f36903e6560324d5d1a371506ef6155233aaefba:743a2979363b4bbe8f509f7045a93bf9</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>b'64'</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="inlineStr">
+        <is>
+          <t>ef862028e4dea347012ec58a1415cb8be6e45b084ebbe1403918af1991d6a2ca:7bd81ddee82141aa8e2fa989f912a66d</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>b'15'</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="inlineStr">
+        <is>
+          <t>8bdd9c7b5b58470bd7f4ae07bb022190056985fbc7335925aad7d6714c2f1f33:99dec68a73d14355a4e6452093b09e5d</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>b'84'</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="inlineStr">
+        <is>
+          <t>a61d86aea78605f906eee11c300d12dba01820216d2db7e06e4b733efc00c1f8:821a6a367aa14b318c29f412896f9de6</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>b'12'</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="inlineStr">
+        <is>
+          <t>57455a50d6c03437d2ad09c35cbb25ae0f5ee08176b6566e122c435ca898eb05:b10ec795c9e14e5aa639b372238bfd82</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>b'16'</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="inlineStr">
+        <is>
+          <t>906bc3886ba307132becfe7074ee97c6baead8d759eade6e645be90426c9386a:efd69fe42150481a84a96ec8e00da159</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>b'38'</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="inlineStr">
+        <is>
+          <t>7e3fee6a18b467f6dab562fadf52c779f330548f1747e0fe86276a583e2c2ae6:f5e2a5133ed54d14b360ecee08d067c1</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>b'53'</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="inlineStr">
+        <is>
+          <t>186a56a9e82d5082fcb976e94a0430aae5554e8d404f4c4ca91a4205cb3ba253:6f540cd41a884cb586cc006c6d9bec8b</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>b'43'</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
+          <t>aac24e58fbb02688e64627c8f49f68cd658c551764f32a5ec14b3f70cf66bf77:aad538fe08b64a34b9fed788f551b8ce</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>b'36'</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
+          <t>bcc2f3b154a669052917c3c2dcbb6dcdcf51890ae736cb65e0fa8e0ba0089606:ea86c13fe9fc431ea231f786415716e6</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>b'21'</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
+          <t>27fe711f3c02fb3840ea959f66463269ae9ba30f80337780ba73de69490cd0c5:fe5cc3dcbfd34be0a664fa226b797fb9</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>b'45'</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="inlineStr">
+        <is>
+          <t>c4add6f932cbb581193be4e853551cce514bf80b35a960071fb1a44403b376c3:f402c8755cb140758f2f07823c3e903e</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>b'69'</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="inlineStr">
+        <is>
+          <t>9609f0dc3f9930b4dba31e9da408306469ca9bf41d8850a0a784eab8fae97d7c:1f91fb396ade4ea2922d805650e4a09c</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>b'40'</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="inlineStr">
+        <is>
+          <t>9e169164c58656224e6d75191470567a05f789d90f2401b8f4b943846d5ae126:bf411e1186d3476ab763cf78167ce324</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>b'76'</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>b76215e74bf6f510c09ab27101d25356884b55e051d33610d75c8a1aaa9b1325:1ec520ce84bb49a0a6085eab6335c621</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>b'24'</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
+          <t>74b4566c545236f537dfbfdc7095f941487899872f8daab2e729016430997e2e:2183cbb566504e81b18ab68c6b928456</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>b'81'</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
+          <t>cf2dea058a1fdc9f5ac0e14640bda28c8daab00ed5f87f51d066b3eb48a95fa7:d212ab164530450ea188e1818c8a785e</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>b'93'</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
+          <t>47bfbbef6cbf7d692613796bf1165ab20749a9e8297cfea2063bba2c9d027a37:7a3037c25ff34e75a13820e74b1b102b</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>b'25'</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="inlineStr">
+        <is>
+          <t>e17144a9292e6edf09b142ee70c286ed3199d78d06fd1f1543b311407c7fa870:d3682d1531cd42e687b93b8b9e866f60</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>b'67'</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="inlineStr">
+        <is>
+          <t>878c027bf58f1a0bf840ff92e754706c109e735e6e11fb7949bdb8bfac92f526:7dc772d80a614f018c9f02cf70b3d841</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>b'78'</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="inlineStr">
+        <is>
+          <t>02e19b5f775f06aeb784fe995fbc5bf70e55a747022442cad13097d878c99c7d:0826a3b6cf57415c853cb2fb279e5631</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>b'60'</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="inlineStr">
+        <is>
+          <t>a49998da08b37fe597a19fee3aa76a2adef376fe4f1a43a2b6031d0272540f91:aacc6b9511f54cd5bb1c13950d4c2a9a</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>b'18'</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="inlineStr">
+        <is>
+          <t>07c7d9b63ce99f636f718b8026416a1ec87c3a8b98943e40cd9696e72be360d0:b4894284886246fcbd6a8978f84e4d97</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>b'79'</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="inlineStr">
+        <is>
+          <t>93ca0c1aaf3a68995e931695a2a3cb008b5cda9f0fc65d827ff4ee1470c63521:e5425194a3df459aaefc27b61801a42f</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>b'48'</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="inlineStr">
+        <is>
+          <t>34d923bee14198415d5ebecd806db3fe08bdc2fd0ad458d304bf1b9540ef6d5d:8cc0b56dad464e56aabd6e631b91445a</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>b'32'</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="inlineStr">
+        <is>
+          <t>6e8ae0266ab0be57160fc24fdc12567dee1c9109863d38e79b3533d11c2ebd73:95abc09e3cf748f78b3aff073c5c3b5a</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>b'70'</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="inlineStr">
+        <is>
+          <t>ed45ee86a5dc58937fc50c49a0e16310953e4ae80972e327824891bde83099f3:c9518dccd421466d9fdbd13861b9f8ed</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>b'68'</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="inlineStr">
+        <is>
+          <t>66f7229f3f98efa5fd3cc195e1414082e95d081afbfbe36e05a4f9d5826c83a6:b05d66e5da894a708377e1da7cfd5bec</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>b'14'</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="inlineStr">
+        <is>
+          <t>5679ece867aea1eb451933387557233729fa020c3ddbb3175a21c5bc206223db:61333ca1fca34d77b7adf1963d458fec</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>b'79'</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="inlineStr">
+        <is>
+          <t>6a4c507f12f5ecc980b579f7c026dba93a02abacc8d6a5534343c0e279f48223:f610cbd1314b44c1a3344fd3b5728a12</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>b'35'</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="inlineStr">
+        <is>
+          <t>9e7625ced827910e80971400622a9d200ed532ba6c2ecea6527858724765bcdf:7f7bc9ecbd98450aa57edb37ea26974a</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>b'12'</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="inlineStr">
+        <is>
+          <t>2ce972d442dab6563ffc9f1ecc3405d288e0f61f1111f615d196a9447b2e4ac1:037511f1896d4d7c89ddd0d837e869a2</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>b'58'</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="inlineStr">
+        <is>
+          <t>8a875f4850c1158e57b3eb2aaf27b870f2862dc39bc832cf747efbbc06fb8f80:989ed44404c54fa2ad22608d73dcf674</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>b'98'</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="inlineStr">
+        <is>
+          <t>fd637a757cc529135c2cb14ec36c972c000777cfc399510c95946ca192b966cf:c75cce588667424aa5ef9c1cbea88bd8</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>b'58'</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="inlineStr">
+        <is>
+          <t>4b68ecd76aa70daf69986c32bd9f0e3214f5369263ce813e72a27d2d6842dd28:bf2ef531f0874fcdb1ed2ec074239d18</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>b'66'</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="inlineStr">
+        <is>
+          <t>da93807e53d19ea322a95e0c70aa0a2b3f7589356eaf74ce3b879a4efeb30be7:09cc06fa1a2a42d0981cba5d4ddc4557</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>b'12'</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="inlineStr">
+        <is>
+          <t>8716552e38da3e57e72adea021b0efd79bf9515091836dcec618645c8a8ceeab:9ae1c8d89aa34f0b9d551cd13cecbe47</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>b'93'</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="inlineStr">
+        <is>
+          <t>837ae5c3d3901beabbcd854c962c22672014a89214a4bd8edeee48ed06ab8a5b:2a606667ae3142c4a87b2d9ab9517867</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>b'34'</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="inlineStr">
+        <is>
+          <t>dd76965907c4da24fb93dd057e3eaf2fd67306c9b85808a2b7ac8d2e7c49a214:12b95b52bba64889bbf59d41708d5dbe</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>b'44'</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="inlineStr">
+        <is>
+          <t>6b13c154ab450d27a1f96275737575b40b53a2ad263642c515b5d215388a90c1:65e6347b9b364280b26d4e7fbd0d9bae</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>b'2'</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="inlineStr">
+        <is>
+          <t>dd61b36d05a977dfbb83f8b9375fe01bf965d9c803d2fcc5e5a94cd3a313a436:055bc82c8280477e9614468650cfbaca</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>b'58'</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="inlineStr">
+        <is>
+          <t>8155261309d90394aebdead97304b6752ef99241a4118be968ed649fd03c36a8:764a4920187345529536e904922ebd88</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>b'38'</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="inlineStr">
+        <is>
+          <t>22bbaee39a299705941ddd5ac5569272974e7a2ec700da08cc898215a87d893f:dfec310d49b54f029b6602c663572ac5</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>b'20'</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="inlineStr">
+        <is>
+          <t>8ed96c8ea0fd3ada8df6ab53f972226d3b222a8b45de9239fb21612703b1837b:bb03d3f2a78c46efa3065eea4a2b3a92</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>b'37'</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="inlineStr">
+        <is>
+          <t>4e561f899ea1f29542cf1559d47897bdf84262efcdd8414c291a223e48df21bb:9acd102bf5684189b80090af5674c100</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>b'51'</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="inlineStr">
+        <is>
+          <t>a2de4215fcc27b9cffee3e757f2ffabda35523adbff36157d0ab6774a8b29e80:13464596930347eb97c7a0d34273a886</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>b'84'</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="inlineStr">
+        <is>
+          <t>6ef458ff361fb8354bd1e4325b07d5643fb6cb999949f624c0631830163aaab9:f1a307304a0c405bb9fd50edfe85d6e8</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>b'52'</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="inlineStr">
+        <is>
+          <t>eb57e96934a9f5e2daa812bff4e9eac9fdeaa96c07076677a46779decd3c5c3c:bd2855b3dafe472c99f22c5c9f6e41c9</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>b'16'</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="inlineStr">
+        <is>
+          <t>d733412e77bb84ef1a0d24da9f53b4416b6b72898c0fb8c2f8d345d85a1b1cb8:7cdd096f063648eab16bced3261425a5</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>b'28'</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="inlineStr">
+        <is>
+          <t>cca14554d41170b2b8b5a12ac2928e26d469b7e314811ab9ba1df3797108ed7e:a31f156579bf46c8a77ec019c593eb5b</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>b'57'</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="inlineStr">
+        <is>
+          <t>a81808851a3b25f7186338c44b69121e868f4760a9e4a61cfca2717699360354:83e24af9102042bb8800a07409e6d89b</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>b'7'</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="inlineStr">
+        <is>
+          <t>3b772131db395ab1ecc7214a95a807fcc1cc0cffbad4ea89f34b7b7667b64472:9c45321e16b949699846ac9c1e2aa7fa</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>b'79'</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="inlineStr">
+        <is>
+          <t>77fdf92a9fbb721c90db54649a834e8901d8aef9d77930077f67c2bdf3f2ad45:f2e3c5e819ea401ea970d61a4bbb06df</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>b'16'</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="inlineStr">
+        <is>
+          <t>0a2e6eaa700d6bf90807ab46964dca6ff618bc31bac7fd2ed4383be8052cffd9:2d3ea85100e9488081a0b5f5dd9f42d2</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>b'36'</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="inlineStr">
+        <is>
+          <t>be3798d589ccc86e5cd87d945b57f745d5d19dad39e6dadaf234360736e07c3c:f73d331e51a940ec871178fc5b5862c2</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>b'22'</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="inlineStr">
+        <is>
+          <t>c49a1b51d96f54d4ed370411550a53979f4782f6226979b35d0331b307d71925:0ac4444b06e648909c5a0fc7f0a81b45</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>b'37'</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="inlineStr">
+        <is>
+          <t>d6cbe50be4569f41989486b49881de25b35cf24d11f40a9c671a3894f5184142:d0ffbe94bfd841439860a9ef7527c529</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>b'85'</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="inlineStr">
+        <is>
+          <t>5de76622a1c1981d18922aef04860e13f2434e513da8aa10c7a75b6164c4073c:0bebb98577ce43de81c91cde56f1b355</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>b'50'</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="inlineStr">
+        <is>
+          <t>4f07104e3bb68879fa0c0bdc0ffe8d706f7eddbabae8bd781cb794079b67be6e:aef88d7d12fd45b5b58b9d567338042d</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>b'40'</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="inlineStr">
+        <is>
+          <t>6e4e953f1c310b2602e547f7e6c7f40736dc80dc0bcda8e880b20664b2717e21:8da2e51e0c9c4bf49bdde8dafa61868e</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>b'8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="inlineStr">
+        <is>
+          <t>1c5d5e4be359627d7656ab65fea66a769f3f57cf4df3291250d83d2573d749a7:e6ef03687dcb4da78f52e0d663080e31</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>b'46'</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="inlineStr">
+        <is>
+          <t>fbb73d01f297d07b820160f30f6d0505f9e38b520cd33ac5dc3541daff7ccaa5:25fdb953be444049b9a5cc76739ed453</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>b'38'</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="inlineStr">
+        <is>
+          <t>c592c38b7290e2ea42c84ec7f1f065309337afda673e41392fcf062bf3b720cd:f91db00f0b6347c7a47bdc5a98f93321</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>b'83'</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="inlineStr">
+        <is>
+          <t>93adb37c7a63d9c7b032581b94b4661227afcfce57a0b9a854ac37a4fe71349a:4abace21f7b543e5a29b8ceecf4aba27</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>b'1'</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="inlineStr">
+        <is>
+          <t>9da9cb960d650d19a26d90ed091c9fc3898746f7402f01d5edcb1fc1c821f1bc:724b0fccf2f94746b443a4f01fd037f1</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>b'73'</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="inlineStr">
+        <is>
+          <t>d60792f5af6e2c6fd5aa74b52f9a192860edb8d5c4125e2e066e332e7593a5f7:e44c39b8483d41f5a5df37fdd04dbfcd</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>b'55'</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="inlineStr">
+        <is>
+          <t>614e2827f7e6d820c19c28cd8135bc8babac8061640fbe5806c052e0ba5ac412:e531b61bf7174cbd98fb6c1ebc40e82c</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>b'7'</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="inlineStr">
+        <is>
+          <t>15949a94b62b4d171b35aa1c6dfcc6499d310994274b256d721da7b5c1b63948:a089209fdeee41529eea734c190fd098</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>b'44'</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="inlineStr">
+        <is>
+          <t>21146e84fb3ea8ddeb467b8e1c1c575111580ea682da8998520ebebb9ee5ae3e:98b8f2c7a62746fc8a25e7f262a34838</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>b'98'</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="inlineStr">
+        <is>
+          <t>a6b0b6aec8e469ce36dc053b4057cc05a8ed0fbc69db545f9b2305dec2be137d:d4fc32d815604cf9b2263b89c92239e4</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="inlineStr">
+        <is>
+          <t>882022a7ad97fe3c77759e4bf7211c0e3fa465aebbb1fe42bced5676b54ebc03:84167acae3384f7bb9cad2f41940f3a3</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>b'74'</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>d880a72b4143cfb38676e6204bef213b13be1a455b76017679205d3990f2a482:faeb01cc455e4256833fc3f1b136b8d5</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>b'34'</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>d259a96e9311673dcad6962d537d6f35cc68d774907f9c6842eb8c76edfb2155:a2e1917e10fc4b2a81884dc4a03968cf</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>b'46'</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>f5a899f610ecd059394a5926b19b7064c14001d7f4d6b5a0f7d126609004db26:8c2367a008e34736807c26734ee212c0</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>b01848c618e005c71eb71157b2239f2480606a0b613db6bc34a16d74f23fa2c5:c3c532178cf54e4899281f7eae92ecc8</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>b'79'</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>952228f2c16f949d0f7a4a49670aa1a762f9902c53303b60ce36a4bdd93eb414:cde65f1c1f5848a6b67ceea6f22a8bec</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>b'49'</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>602b45a502f020396d90f91f59a99af9aff7cbb6cc0b12ec3b7227ca704441e5:7ceb8e265672475a86805b760ae01472</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>b'4'</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>9190ebbcd9f8644013e4e1ab17de46afb6ea23350054cacbcb1dce3b8357e6c3:27cf3be5a034487ca3dda92c7c68e002</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>b'48'</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>ba6f9dbfc2863f62d42ba67162d62535a070aa3cd325c70ba928bbc3e8f6f299:189d866506b94179a4fc774ff6379fff</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>b'63'</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>f037abeb96c7226b814e2433fcb4b709968b0adb55636afb49343ab36f9dbb35:3dbfc37089d24b548ece8961e273bb5a</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>b'86'</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>5180924510053e9036d34dfd2a6e8ea5977277444a2bd56df08b4622bbd95f38:9a4955cf88854826a61c8c3b31b94e89</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>b'61'</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>6bbd81fed0ed30b63767d69e9a8a521bbd8c8fb3ebc1baef292a82bb57a72da8:677d14a7393143f09812e46765a4fbd0</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>b'9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>47bcb6af7cb765d4595dae9758bc810ac1cef528f61913ca3f8b9e00f9538159:13c0d3da4a234840896ba7bb647ed2fd</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>b'10'</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>68f0d7a7803da5279bf05f21ce946d3b19dc797c5ab3471c002de81f46520b71:daa4e5ca3ed94a66b9e73e3ffdb42d72</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>b'36'</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>fef44463c8973315eb2a0af83efe39115c7760b9ccba3178cf8c5092f36e3d22:3ca9ad0037614c7c8a5999384b92c017</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>b'64'</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="inlineStr">
+        <is>
+          <t>7dd70dca5511ec21cf2db51ffd1452c4128fdbf8204bc4b4f0a8b99b30c7a247:cb4130525dcc483daf4925ccacae9bd6</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>b'65'</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="inlineStr">
+        <is>
+          <t>d38477558e706b7df97038ef6840d41b9190e22ffad21243cec39944b8f4ccbd:6bd4a92490e2419f9cc4b7b1e25f3ed5</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>b'90'</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="inlineStr">
+        <is>
+          <t>46c3e3aabbef68038d567447372b6bf08ebd8db753ca6efc6e5c36b5494252ce:500db9ba85464e9582c5e5dfc5a2f44e</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="inlineStr">
+        <is>
+          <t>a43f2caa425b9fda92dce7f3673e45cc32c8f36148ffcc6046b016e6826800b1:f4f1841c1e9e41038b2c9dbbc50fd3f6</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>b'43'</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="inlineStr">
+        <is>
+          <t>1d005dc9acc069da77dd103eccbd7cbdb0a6ffe52c868aeb5d06fce6926a5383:75b2d79b3c5e49aaa9d9393548f60624</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>b'18'</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="inlineStr">
+        <is>
+          <t>edd1a6c650c67dabc4e0fea20c9c3d2f035492c44396a8dece314d9f356cae3f:68094e475fe74258baca7399373f370f</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>b'70'</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="inlineStr">
+        <is>
+          <t>cfc8b630f7773742c0ab1b15ca5eba0cb54b60d641ed38ba1a459da7361ae3d0:ccb3ba8c6f524860b0226075ed156df8</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>b'26'</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="inlineStr">
+        <is>
+          <t>ece9a943e3ea7cdee5975cbd2196fb4f32ee8d55249bdbb05068ea22303aeb7d:ac552ac3b30848fa85c1f1d80fc3b083</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>b'50'</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="inlineStr">
+        <is>
+          <t>f9556ce7ec67eee337b81be9c0d7269fc8bb4279fbfbc6e1cd9c88a485b71bfd:3db22ada3ff84d4ab7031cda2f3685af</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>b'1'</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="inlineStr">
+        <is>
+          <t>1dc525385302e699ad2308e2887dac6fb24ccdd2f13c3a33e355fa817d328aa0:0e08a0eca92a4dccbcd0abe102d162c1</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>b'62'</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="inlineStr">
+        <is>
+          <t>5b31e3c5496057225a7be0c91214568f3474783c710752370a73cd4dfbb7a4e4:ac8ccc7fa3d245a699afb832eb57f2cd</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>b'17'</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>38965aab635963049532bc2186b12d501416b206aa3ee7ddbffd0fb222eb9533:f14fa82542de4c7aa734413831610773</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>b'92'</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>728cd2efe568da86fe92e2e52b021baa3f83439f96359ba9c2ee80cd4d912971:a302e5daed004086a122ec2775c8c83a</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>b'12'</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>142d26f049c3b4234c63f04bdf238569a088a974e11e8b81377d620dc5d63bc9:e449631636ff469bb8043dee0188abc6</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>b'71'</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>03bd697b8f5873991988190abb011e3dcb147d9b994771a739f1e53320d6a8c8:15a5424c220e470ba12ae315cbfbbd62</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>b'34'</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>c1ad77f9b23f287ceb069d59e8add63e9153f394c0d82bcc15bd66b8def45789:94e4ab0d3fd94732af9ab74bef4936f1</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>b'2'</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>d3e56456708441b065a996463e60f4e38df5231e7f56730440c313dd240cc53d:97c3db3153324d21a91d7e75a9b904ec</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>b'75'</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>108886f224c8a2bd6d8cb2d5df319705faf5d9c5bc5160078d43b663c9af6c24:44650f9e301448cf852b45351df4f0fe</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>b'32'</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>29e9d26f6d4b835bf2bf2c1b94cf91fcb5c89876dfb8420f1d1b177fbc3fe95c:732b0848f0c044b580d2763986d6d990</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>b'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>fb5445cc2eac74a983bd75b8d2b6ff71d2a3d5b4bdb0a8d8c417d582ea322110:feccee24d9924555a7c65d6afab81cc9</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>b'68'</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>a3106f1ca3f225ff5982f5c76151a7356296ef29a445233a967576596f7f4d6c:dd856bd9335c4cf9abcf6979486776de</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>b'28'</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>ad36dd60f5e3b6e9489ce2c52c6844391803411986bcdb4487b23c6473948376:e62c9adc7d12442aab1c3b4d0878682e</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>b'15'</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>5c783dff2911654748571d58122a3557cbb089c4b3ce7e23c27d7104f506108e:fdc113500bc24e79aa7bbe0aabb267f7</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>b'30'</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="inlineStr">
+        <is>
+          <t>e387e1d16c4b9e777962ed17a357b877d0371df6183701a7d08e8e448aa15eb7:8b63fcd955f445dda50a93471b1dfad7</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>b'9'</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="inlineStr">
+        <is>
+          <t>0b4b2b198c22dc7f73c6eabf7e437f9652cb1c84fe388d77d8482d17751306be:135403b1fc2f4397b6e64a1cd590c9b4</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>b'56'</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="inlineStr">
+        <is>
+          <t>4225115728b489c7a711a6bea1631f37936158c106726a4a8a04ac3e9923cd6f:d9e22067823642548d6a292e34185ec3</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>b'62'</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="inlineStr">
+        <is>
+          <t>97cf8fcf39ba33da1a47240923dd3e8764badc995675049d7bcce279496ee047:e2f672dd39b34e598429b78fd71cb9e4</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>b'81'</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="inlineStr">
+        <is>
+          <t>99bc1400f15fa2abacd54ffe35ca97f0540dee271766f03cf191f8c214489aad:aa032a10756648be924c59ea48eed8fc</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>b'81'</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="inlineStr">
+        <is>
+          <t>fc51fc8b608906e740b76384f5a517aae1d36fb915b0fae942398c6e6ee9a3ae:53bf5c7537cb4e85b06e80d3c50fcf9e</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>b'40'</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="inlineStr">
+        <is>
+          <t>8d10ec55cee704481db50c7d367ec2da734b9a82075aecec90be60d1eb4a1293:09771c1229d94716860f44d05d2c4a92</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>b'11'</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="inlineStr">
+        <is>
+          <t>35aa961d0cd1a5523aee39d98c779c927490d619d1bcf04c891b7212db709011:20a2a28320ba4a8d9df5e839762dff99</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>b'43'</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="inlineStr">
+        <is>
+          <t>45ff7ff2773b6433c1b9dec2e3ac1b3ce0afdacd6c97d0e4668750b441ad35f8:88763184a6214dd9b69558e43b6e2414</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>b'15'</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="inlineStr">
+        <is>
+          <t>089316823ff55cd76f50e033c18d53300c820072f807fae643a3b282a1989f30:93fd39702f214870b3f6d3c51ea0cb0c</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>b'64'</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="inlineStr">
+        <is>
+          <t>4c20a6340650f0e672abc23d36b134e938f202b173e492ccd2c29f4b9eee3d27:f770ed2e8ea442a3b0b1d94e7b7429af</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>b'69'</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="inlineStr">
+        <is>
+          <t>2278a7569015d94ba1676836919c5f3d9625f4ef077c0078502398c6ba9cd288:cc054841b2fe453c9725994d73d25e83</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>b'96'</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="inlineStr">
+        <is>
+          <t>38a73e374c67f0dd0f379eaeeed29504b6610b372aeac85f9cd0c3727033b45b:8ac398a76ea84aa08125681839726d3c</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>b'1'</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="inlineStr">
+        <is>
+          <t>5f7abb4cc34341fe5db77cbf1737b41751f8a2e80a41e20cb8a5d961ea74d548:b107fb576bdc4c4485f197caabd2ad05</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>b'73'</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="inlineStr">
+        <is>
+          <t>3d4b5ee9a3ffc1accef327349804b51288f6e7c318b4e0ba7471e673353c9db7:1f169a9bba5c449190754107ca80abf4</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>b'75'</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="inlineStr">
+        <is>
+          <t>b6a091d6aa531194adfb6aec4399952cd9d533cb73f658a979fb4b2204c77678:58b766c1c14f43b2a81730fa3a975f2c</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>b'29'</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="inlineStr">
+        <is>
+          <t>2fd7991f24eeed718f501499bf47175915e6c8600d8ef78feb7de218cd16306b:94b8e2e65c234af2918579aa5f76ddaa</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>b'24'</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="inlineStr">
+        <is>
+          <t>a5da03b4de199535415e78e1e5f1d9f45997e52ec99c5b0ee6020d941114bdae:4a166766a3094324acc0b6ee251ed4c9</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>b'86'</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="inlineStr">
+        <is>
+          <t>1a011aacd6adebfdc042d1a48f8a4b925ed36d88a6bc15b5405b163087ccdd4a:7a7c96919c89404d85290c129083b312</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>b'65'</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="inlineStr">
+        <is>
+          <t>06ed5922d764910a9be0144620429c2a4e9527ad5ac3447a494c6c01769fb9e5:bc60017952824f1a85aa20110359d7a9</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>b'65'</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="inlineStr">
+        <is>
+          <t>3d21b624a3c9df98aa9980caac1f353332f1257b7093591b35af1bdd4d46ef9f:ee3f56fe2285497aa506b587147a194f</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>b'79'</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="inlineStr">
+        <is>
+          <t>c124b22e3d91ebe51a99920b999c97d7f45d6bc98f4a7e0fc0a6568c002e0c84:fc78bb17fade43278cdcdf39aac3c895</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>b'85'</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="inlineStr">
+        <is>
+          <t>3296884b5ef091810ea0882760679d0fecbeea6ff24907ebe56a303df32cfbff:45a6d0b8fc77425ea220662cbdd7d713</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>b'18'</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="inlineStr">
+        <is>
+          <t>afaa4de65ea0dfe39c10fee323ffaa8cf5bb7e7af541524e80b98eaa391268dc:15d5b47b71b44b71abe2be7efeebf7ca</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>b'48'</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="inlineStr">
+        <is>
+          <t>d45fd50380261a6c32894cb603f2aec84d707281d5c76b94172e285bcfde515b:047e40ae6aaa4584b3afb741ad5ec9e6</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>b'67'</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="inlineStr">
+        <is>
+          <t>699194dcdd5dafd20b94abc4912a9609845926d6d11edb4146a30c86d15faf48:e39b3469e3254b8a898bd3941755e8f0</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>b'8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="inlineStr">
+        <is>
+          <t>d5783335301e3990718c12e7f74d4228e25e7d089a8f7c30988ea13a435ef05c:f54ccedf52b64f7ebc5eb8ed658c6563</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>b'43'</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="inlineStr">
+        <is>
+          <t>05037785ea212ef01d23c3d7c478dbbdbba2ebe8d5a22e3f564f1bf7ca4616fa:e7c6322dbcc640dba48e603ca1ef05b6</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>b'16'</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="inlineStr">
+        <is>
+          <t>8d65d33f7fe241afd1d5bd59ab8f1ac0d360912859c72be5af3570146f988c36:1eca5621b4294e329b35cbca9b885196</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>b'43'</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="inlineStr">
+        <is>
+          <t>e0ca736d2f979b948e7f3cb05475539f806e6751d5a9260b1c57e133c7103f9b:9cb5334713dd4d5b829a48075749b93e</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>b'55'</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="inlineStr">
+        <is>
+          <t>92b748458c2badf5f666ae96f41364021fb00a9d53e223dd12ccfdf2c1d8d8bf:6817a48ebfb146fdabd65d264a0aa3d6</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>b'36'</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="inlineStr">
+        <is>
+          <t>231f1abec055580eeeaad1c6f95b75426b16c62212accb6bb397491139c33a06:c6f4b0840f0b40e3b28b531c7f332cf8</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>b'11'</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="inlineStr">
+        <is>
+          <t>0748f8076465874084cbefde30fcf07d7a1c5d4b59cd5c0a4e81550d8e72719c:244d351ac2414bd8be21748cb0e06ccc</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>b'77'</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="inlineStr">
+        <is>
+          <t>29d27836698cc344974b1219ce065352596ff658db79dd276460b9a0735bb873:4bd077b5e751452bb8c24e1f252549ca</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>b'34'</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="inlineStr">
+        <is>
+          <t>8eb9e96fbd7e166a1f4cf00947115007572afb44426ca7d2021f72c580ea8b4e:fc2e17f3127c4cbd9f77ec8a202ea427</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>b'18'</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="inlineStr">
+        <is>
+          <t>363bef112e09f4a97e25bc2d681df9666bbe5b3013fc540a8d44b9ad7bac6e1c:a2373ab829004914a5eaa388be818484</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>b'59'</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="inlineStr">
+        <is>
+          <t>45994333e000c0e250771bbfd905d92b9df32ef42346b4e28ff5b29eb333ecd5:a716515aed70470dbec4cdf39f2b29d6</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>b'84'</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="inlineStr">
+        <is>
+          <t>c7679225bb01494a245f7fa8bbe8f62592f36fbe6eed020f0d7bea2754c67a31:e0b62089ee0c431cae3e35ebf5fd03a6</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>b'34'</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="inlineStr">
+        <is>
+          <t>80a41e327375f83d223627008aa078d56683aff6ebecb434d50d955acd81a885:4a6d7b8a9f2a4ba39d752d2f20579a7d</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>b'1'</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="inlineStr">
+        <is>
+          <t>83ac0ccfa764b35e75873e30c6d13ac326bd7184346b39cb6dd71666913d2851:d9fd95117406493a955dd202148252c1</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>b'88'</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="inlineStr">
+        <is>
+          <t>b20f8251aa1079d368abf3308135ed5d8c12b0568d5d2ea60ac5689502fc645c:2978a3f2ebc44209a8028a5449d5f2d5</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>b'20'</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="inlineStr">
+        <is>
+          <t>7f349f98ff9fe28ef25fa5ce0fd91bfd89fe4045bad5b9e741e9c17d5b509354:c10db8b2d2cd4f78a657494b4e1e9d31</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>b'66'</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="inlineStr">
+        <is>
+          <t>a1184901bb9beaef14e62ad57b41ef29f4d497b728de7788d449e05fa4e71aef:80bbbdd20b464b16b1405ec44370910d</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>b'58'</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="inlineStr">
+        <is>
+          <t>fa96ebb19e12518214e9c4ddfe380fc3239372badea24c7c2034f96620f9b5bf:96347ba7e8dd4f69803ae3476ecdbbe3</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>b'17'</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="inlineStr">
+        <is>
+          <t>80b25e46ef0e57b4ec7f7a404f2c1d1db82d4b0f7024190890d04ca54b156dad:4e639fc0cbc44d588d08d45b59bbf3b0</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>b'8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="inlineStr">
+        <is>
+          <t>9045303ff5093ae168c0273302922dbea91adbeb2fd9d4ac7748b4a9754ada1f:4fc2d77d90fb4ad6a9526be0ce1704e2</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>b'83'</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="inlineStr">
+        <is>
+          <t>fe2ca7842185a25f7a3ace9f07c94726e5b81f1f9410b1e0475b1a8588a29968:3ba30f8acc8d40b389a3461621631514</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>b'4'</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="inlineStr">
+        <is>
+          <t>fb7896da45871c27098f82234d0f4679b39f2555670ab42440567a03d7e574a9:2d693c05a63c4e4a862988a7bb2983f6</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>b'64'</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="inlineStr">
+        <is>
+          <t>d0f7c224156b8f244b1a64101aadc77b4edcf8aaee2be2ac6ed57e235807e2a1:f74d2eddffa64528bdf5afeb9faadc9c</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>b'42'</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="inlineStr">
+        <is>
+          <t>5a2ffcaf2d2026505fdd75702655d4ff5568f356a31bcaac63951a699b7a0066:d9616bb760fb43a4abcb0759b9fe82a5</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>b'8'</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="inlineStr">
+        <is>
+          <t>65576c26025d283e19243b23ae7e63ce125adcd5fb0e2118cf15033825e56113:cf0ccf1718e143ce8dcd9eeb9f7e092b</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="inlineStr">
+        <is>
+          <t>b21e4d0ace1230abd9c6dfd1b803b1b97fd39bdd75631f14f1d7c03c15ede97a:36b4b08c6c4143408ddf1f93fc4207aa</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>b'27'</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="inlineStr">
+        <is>
+          <t>3ba92172f5ab3702d5847136ab167ce425ce0e078673af84446ca8e46b25a536:4c9e3c5300534eaea65f5d7d195ded15</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>b'92'</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="inlineStr">
+        <is>
+          <t>d59966ae23343bda58e59cd767833b64554710064f1d86758ffd9b5738c9830f:aabc0b9ed8fb4c5f86097284e8bf92cd</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>b'54'</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="inlineStr">
+        <is>
+          <t>0d3190336a81f6899781ffa605e5ad56238147651b8f9d5f998d76039dc8f85f:807b0447550a402a9921710a2522ec83</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>b'57'</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="inlineStr">
+        <is>
+          <t>b91feaa59d54a4da2cefd1e543bcfbb7578f18e95a4daa2f11520b9006a8f5e9:482bf75f7cc9460b8922c096aacab692</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>b'6'</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="inlineStr">
+        <is>
+          <t>4cc5758b6195931a42f7f761eda83abe59bf46b8531ff087a059a3f85310a99e:41185b437ff745f59f62083e925c0979</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>b'36'</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="inlineStr">
+        <is>
+          <t>c78f395b9652496e04eda78e644beff612c6a60196fef5d41bceeb94afd0fd82:357b4e2f91004d3786ed07ab4b863b1c</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>b'68'</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="inlineStr">
+        <is>
+          <t>dda06c578614b31cc5a676b8812c8e6dde3075e5ec95ef3c2363da58f783ee50:a45e5b94d98e4ab3ad159ab4787076ff</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>b'45'</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="inlineStr">
+        <is>
+          <t>452797449701e391f1de01df2a9e923e3f2b318bba33d3a0ae51ec7faabb882d:e2d6c58e466847d2a821fa3ead51c93b</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>b'18'</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="inlineStr">
+        <is>
+          <t>05edc91ba3cc3ab4627787866ff03fac5bfc48cd003a4f484a1933e1669f18f6:5cb6e27e66634130afdbeaee0a57e0c8</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>b'91'</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="inlineStr">
+        <is>
+          <t>5e642e78e52262c981be621c48c618bf25071a64281b6f61789572c554a0c278:cfff30b2347040e98bd2997ddb8cd598</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>b'88'</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="inlineStr">
+        <is>
+          <t>c340b818b9048a20abf5803b788eb59b824a9b0a4be92c8e7b8817e39b214713:fe65120976774f04ac3fdb2fc2fb263c</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>b'39'</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="inlineStr">
+        <is>
+          <t>ab536d7f3252eeb6f3654c67ed4fc9eb82660052f36b0e4010973bc8906d0121:baad59d6fec94a0c9500e4bce2e67c35</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>b'20'</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="inlineStr">
+        <is>
+          <t>385a0814b7112ac672609d68b886398bda7f62b8a810fc8defd489547621ac1d:cb475c9d5b2542aeb8835651d403880e</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>b'93'</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="inlineStr">
+        <is>
+          <t>3ce16ae54dfef6b272e57e4d47535cc55edd2ace636cc5a51e8c91950b755e1f:cb7acd74ed9541d78cb61d635a6ada4c</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>b'57'</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="inlineStr">
+        <is>
+          <t>3d81e92a7d7d4f12477d432d32b600f4a2439465344ea4d25bd8577339b5503b:d58d51b6412a482f849b0c86ba755b7c</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>b'76'</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="inlineStr">
+        <is>
+          <t>de49aaa8b5cc6f2f155846f91f048c6fc443d71f533427b95e2d146e68d10d7a:b4861854437e4c498264006e1afb80be</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>b'14'</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="inlineStr">
+        <is>
+          <t>fd144254219dcfd9eb50257437350c246ddf21c05a0fe411f53dc34a95ee5512:e819576d14744aaaa1c92c5807c58624</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>b'54'</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="inlineStr">
+        <is>
+          <t>e4e2944df1a1778aefa8d471c86026e092eeeade175353f830381561329e1a44:448e0a625f4049cea73b14eb65889a71</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>b'94'</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="inlineStr">
+        <is>
+          <t>ef83283ae93b12e407250fb3e33a59a43f9f097dcbf42be44573c8abcd04e7a3:87a9c92cb08d45cab7511321ba9847d5</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>b'64'</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="inlineStr">
+        <is>
+          <t>ac5b4c4a892b480d0fe54686a688e386aeda0817d14fbf35129e39b391513225:4a4912e489954a488a12c1bef25270a1</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>b'6'</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="inlineStr">
+        <is>
+          <t>7474ec4e50b70853b27ebc503d1ddf19336474dab8ca11738bf8fc188807ab28:c646831ee2b447df8537b0858f19e04b</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>b'86'</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="inlineStr">
+        <is>
+          <t>964ed5f74a35f154f9a0fc32cac816d48e851d4ddeac5fe36d96a78bd8d107ee:8a4c488909a542f4afecdcb239e022d2</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>b'61'</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="inlineStr">
+        <is>
+          <t>27bd2dbf814f982e30cec480184adefc2c745be01f7635f53893e4f384d2d3e4:1baccb8fe2e144bdb0bacaff06f42876</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>b'1'</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="inlineStr">
+        <is>
+          <t>e39ff7a7595b5a1a860a571a4cf2042019a04c81e51f4c298b2c481ba426e5c0:943c707234464b6e9fcc7ffd1381a0d4</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>b'85'</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="inlineStr">
+        <is>
+          <t>07d5a1cd250a011b8019ef659f9db6e8d06ed2f68152c8ca3a45f79ee9a9da80:9b41669157744c5785c738470a78011d</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>b'82'</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="inlineStr">
+        <is>
+          <t>01250ae740815b6aadf41d3257728535f11c2ddb4e8605dafa21b73e5bf6f8d9:ed085a292c6e4db79d53c1d395c5c0dc</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>b'61'</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="inlineStr">
+        <is>
+          <t>0dad6909b15fc2ea61c7c005b283f18ad33305bc8b6dfb5f29e217501c90c273:0343b73c91a14fe184dc3472c7d2f9e0</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>b'94'</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="inlineStr">
+        <is>
+          <t>396b6f9e37b51397fcd4478c1a6ba445ef9247fded34fa3bafbc7db973518b7e:0e03c55575ed458bb587085f9c6d514e</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>b'49'</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="inlineStr">
+        <is>
+          <t>471217b06a46271a463e5a63b84fd91b9f05b8563ad331b5798199436a2c1024:61f0e815ad5c4cb58cad16a88a4c876d</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>b'56'</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="inlineStr">
+        <is>
+          <t>89b453548106c0b839f745f20b64bbf1fe5201ca612229916ebc0c30334163e5:40f3640c83164e6d86005c94effe017f</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>b'50'</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="inlineStr">
+        <is>
+          <t>a91399050f82722a636f98823f26636f68570680c3bfa32c8d41033e6e0afc92:a2e83aec09f6454eb4dda497140d9c95</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>b'88'</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="inlineStr">
+        <is>
+          <t>fa346eed6ea77543fc43f34410fe742e4fef68a0325a75e5a638c9b00b17a2d4:26ceab05d04f4ef2a270646bcef0f1b2</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>b'65'</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="inlineStr">
+        <is>
+          <t>83b74012e250745a996fb999c53234dbaad28eb8aec5952003e322b247e17e42:3e94c0460a944fad954f8067efa53eaa</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>b'46'</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="inlineStr">
+        <is>
+          <t>2012393d2c3b157576e38a2c33804a5a56e0acf88050d625cd477c0b98ff5404:83b0bf27ee2e4df488e966abde307b45</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>b'12'</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="inlineStr">
+        <is>
+          <t>d28c226fba628be7abb8da0ca1a02d05616b9fc833bd4f33e1f7f247692d18c5:e5755578ea7b47ab8570039f6f7d04b5</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>b'54'</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="inlineStr">
+        <is>
+          <t>a6e2cf70986c6af9c9d3741ff0e95dd3013ead9687bd696254b39a033702efef:c7519e0d07ad42a2a76908a1c277c9e8</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>b'86'</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="inlineStr">
+        <is>
+          <t>f876be1d32296d23a16a7797a4cffb0bb5a77ab44c829869beb33cb77d3d5ffa:d054b57911f64a6693bafaf1dc58b9fc</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>b'28'</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="inlineStr">
+        <is>
+          <t>488701d9afe5eadaa27a67277e827a983aa52505d9d93f47bd3abc7d134e8b8f:d76cea8a49034db492d4fc42e598056e</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>b'28'</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="inlineStr">
+        <is>
+          <t>a8c6d31cb91d7911c07346fe7b52ea734739d4d7cf751fa48a4eb506493d516f:85be07b79c1041d8be4c7b3c5590799c</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>b'21'</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="inlineStr">
+        <is>
+          <t>d6b2a29ae16578296838e0b4badab49c7e622e675897a9a60054cb19091bf4fb:df68c884581a4c40902429ba58f2e065</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>b''</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>b'84'</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/MyHashTable.xlsx
+++ b/MyHashTable.xlsx
@@ -13,10 +13,533 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="170">
+  <si>
+    <t>Unnamed: 1</t>
+  </si>
+  <si>
+    <t>Unnamed: 2</t>
+  </si>
+  <si>
+    <t>308a3b13b787c53d556e1f22259b452c5121c767681c0db00bdbf3c9956e6e30:3570a757e7ec4bdd8083e77dd314f3c9</t>
+  </si>
+  <si>
+    <t>c1b50d5d7bb04b2626884db0c58c30d529c319f086834d6d4c9855700e37f3ba:82e439a2a3ae413a9a46e2d4ecb37cca</t>
+  </si>
+  <si>
+    <t>6d6f99053e8987c69022412e8f12445c528bf0af315a594e83b78b9bb5163152:929d34b2e2684b47b7319cb3fa972ec5</t>
+  </si>
+  <si>
+    <t>acbdef0fe26ceb4b0da2b60ed6319e4d50dd4babbefe20961d6a04d7fb7d87ee:0109164708cd42c3be95e42cc71a982c</t>
+  </si>
+  <si>
+    <t>7160dba891d0086977c67825187b6c4fd20813a277070e045aa1b2772c5e6d22:97cdc395724245fb86b1fa97c6f8f7ed</t>
+  </si>
+  <si>
+    <t>8f69a884b6f0010c7e3ac58dcbd6afa1a62e98db9a3141b6ebcc1219d21ea3dc:90246e94306542d988b7c50a58d2e90e</t>
+  </si>
+  <si>
+    <t>7cf7b76de21c00a4587eb9ca08708dec9d0babf8b26144725d9ffacb678e45ec:5064ec237a8b478c91105593f5fea777</t>
+  </si>
+  <si>
+    <t>c28cb2f201c10e4da3135a5dccd82d982a2de0a5c8db3bcf815c46f51f5d4871:293dada1c58a426da42c86d7d4d3aa61</t>
+  </si>
+  <si>
+    <t>0e913d35dc5ca935002212b07808c4c1378abfa4db042878143d7081c3396e0c:a8824d11f40c470eb329958ce10175bd</t>
+  </si>
+  <si>
+    <t>dfc95d0ed816e14ea26a80f91e14d65da0440bd23f00a9feb50eb1eaebf2f61e:0ed0c9f97b1f499e846ed88c459bd1c8</t>
+  </si>
+  <si>
+    <t>ac53bb92dd6611e29bc3a92f71ce73f092ce19291bd7fe5a0185199222265e04:22a88ce451e64b1380788bd67185c578</t>
+  </si>
+  <si>
+    <t>8e58892304e70b8dcf856515ccdb36f9c10093da1477b92359ad00d4933a2760:7d64940c6d8a4f4facf8172959a6528f</t>
+  </si>
+  <si>
+    <t>e11ec305c723d7ba389c977a767f2101bdd0f4bfae1bffc601afdf104393a835:ec814598aa21468fad46c20dc919b481</t>
+  </si>
+  <si>
+    <t>49c8e5ce12e445b20e4b2d680ec2d6c52101c55818c04d98fafe683aa434ec9d:2e98e274237648a2a2964803c5093f4e</t>
+  </si>
+  <si>
+    <t>cc951688c6c2ce2bfcd60eb18d634351db929c0a411b025c56648036342b7f7c:441cdb56fed140989124d5fe8d3d3f32</t>
+  </si>
+  <si>
+    <t>5e177ec120e94b1018e03c820093656ba6bd18efc168ba2671cbd3a863c6ad5f:46da3bb097ee489b99807414b8500b94</t>
+  </si>
+  <si>
+    <t>1900cda37e8af494b07434cfd7f0e9e5557884026033e1504f74c48e7eccd2fd:1e0941da9b6c4aa2a85db21ecb731e2e</t>
+  </si>
+  <si>
+    <t>322dac60f6f165c85cd12c785b8ebbd5876d1c8c1b56b1723be381c09f3bb398:27dd00704ae5431ca592c720294540c3</t>
+  </si>
+  <si>
+    <t>cf24df63f75b64176986b80a976c1807108f42260a24858bff633b1ca97f9722:bc58b77d6a1a4a05be42cd36527f03ac</t>
+  </si>
+  <si>
+    <t>99f8ecdc220471feeede6f19c3bc03e06846e46db83f354afb1b7f008a8c360d:055e3ea953e44faa979bfe1715b907ca</t>
+  </si>
+  <si>
+    <t>f1db82b3dd4e31679770b9c0b71022d1a79063dce8a44755d2329ea8b561a5c5:d213327d96464232bef93c59a2407fb8</t>
+  </si>
+  <si>
+    <t>a9ebc4eca8273fcc1a00c7f080123e188799ac9b2d88db71577b0e848d71a954:f3e268e547114ba0af16767a9cdd2c98</t>
+  </si>
+  <si>
+    <t>5312af1318f4bae32a0ad56c15b3297ea72a9b6ced403cabdbc6a726bba4d42d:498bbff8aba04104aa550810bd2834be</t>
+  </si>
+  <si>
+    <t>af11cdc43e09088a5d9c69b2b21aedb361b0bd87eb6c50a3da06567e30ca550b:4ba7cd475ee04d4d92119073ad1acf08</t>
+  </si>
+  <si>
+    <t>75bd2b3dc9bc72d0fc021e95b6ff28b453663bcd9c06b3a53d4f39b1ecd444ba:471c737da1cb46bc9c2aae697690fefd</t>
+  </si>
+  <si>
+    <t>c3317f10fbbdbf4a811835ff385611f17d505811af7496a6aaa5c022f7e2e163:cf8a38befe4849868d09b9ba0e2b74e4</t>
+  </si>
+  <si>
+    <t>6377eca347c239bad4e59a5bd25fea1391d2ace08ce07f7b3f71a4becb163f64:4647fb80f6e1498fb21ca1b5b0d4660a</t>
+  </si>
+  <si>
+    <t>24da03a770be1649dca0ce0f3058b56eb99f16523eae0f64e872df8a83d244d4:414b72c736394484b481b3de1361cae1</t>
+  </si>
+  <si>
+    <t>253e0a01a6cdcbee7b013f3008f449c8d4ad1b9b939e61ee252341814b05761d:c740c402e8f946ce8bab92281a40edc5</t>
+  </si>
+  <si>
+    <t>e9c0b00bffc02bc948297a4347bb2d1c91db583c46744f45c699fb7b127d3704:888489171993426588faf350e339b657</t>
+  </si>
+  <si>
+    <t>a794610ca37af241521e0dbae55d7c928a0c9c555d83cc6520a79cbacb820f5b:d7211f6441ac49f880acffdc11d90b71</t>
+  </si>
+  <si>
+    <t>fa09e8c496a3f2c4e4712048dfe9d1dfe7a4e5ef8bd10ee148b1d39713261677:c54dfa069b6b488691782401eea5126b</t>
+  </si>
+  <si>
+    <t>4bf415f7c0445ce1eda198e9bf62afa13eed1caf8ec4ba44f70ab2e57ef5f134:6b82462080f14c85952a726b58c8fee7</t>
+  </si>
+  <si>
+    <t>c2961b9c7e218df3f388ba0de19a99642b1fcd11827eae0932bb935312c974b5:0e5767a463504acab8911cec4701751c</t>
+  </si>
+  <si>
+    <t>becb516cdcc1b40169169cc3e9c958f108cffcc3286a0e32fda0b4be52bf439e:288bdba7b3ad44fe8c7edc84c96f4e5e</t>
+  </si>
+  <si>
+    <t>35b221bb6b5fd023c4aaee0508a367e3bed02d115b71b0a93dc3715e9b92dbd9:c8fa1ecc45c84f90a8649aeb98131faa</t>
+  </si>
+  <si>
+    <t>ec6bf9e7f36ce98050bfd11117eb649e597dd4c97d0a692c1d1bbe6fd5310372:3462abd0fd5b4e75a6769721d66c28dd</t>
+  </si>
+  <si>
+    <t>6a1031fb73d2e3047395ff296f6577dd32b4dca75bb0b6268b177fed44799d4f:7c11a0dd16eb418fa2391482941bbd55</t>
+  </si>
+  <si>
+    <t>9cf726830813e3d9bd8ef29467e134b4ccfa6f3ca84cb41c1b2a6545d91bb8be:7995dd6d85d143a4842f1ae689677311</t>
+  </si>
+  <si>
+    <t>f52958d83bfb9360f7c1b65b04e67d6f76526d979b6b542b4b554e4e3ac8eedf:4c7ffa6d2a5c4db6a4630464ce63a273</t>
+  </si>
+  <si>
+    <t>90564fc73b0a02ea871dbe0e30fa29adc125faffe8fe57e680dc5abbb6e31911:d54ddfa56b29484ca2d42b19de1668c7</t>
+  </si>
+  <si>
+    <t>f98a217860bc7d020911671a69d8e33a5f07324b7e61c5afe4065304e9d47093:8bf76398c72744029f680ca8ab0f209c</t>
+  </si>
+  <si>
+    <t>c885fe13b1f26f2ce517bd495ebed932ccc547830052feaf3e361b611a80ff33:6d64dca46aa7468d9a704f14902565d1</t>
+  </si>
+  <si>
+    <t>9f5cf45764deabdc85b6e141e4fa4a0c8d78d967ca586ef967872b26e94e80b2:be4e249bae654f2d8663eef83e06a9cc</t>
+  </si>
+  <si>
+    <t>5f23a223b1094163db653433b93736f191a2139c7f78d2d2a7dbfff805590ac7:b34bd48672bd48bd86e13136b2e8a52d</t>
+  </si>
+  <si>
+    <t>f9d6073f5980f8a461a7a31cb4a1500666d2db179bbddf6a9baaf19c8ac91141:0ba6ff9922104c79a382d79f768c20cf</t>
+  </si>
+  <si>
+    <t>ba6cdd3ba12eb61208565445824f69d5906c8fd1e97485ef466d14d41c88b90c:a16d7e29cf2042cda4edaf0a965cfa73</t>
+  </si>
+  <si>
+    <t>5eccee515e29635a49fc631392835e0e03193bf34e3a00f34866f6083e8da612:c2027d604c794148bd1a03f0d8d794d8</t>
+  </si>
+  <si>
+    <t>6e66ba1c9d17a17dc4b3ec70619b403ff33a7cb88e30e75172427de771073999:147dd3f2b2af4486a7fce53ad3e66da6</t>
+  </si>
+  <si>
+    <t>3e2cef572d3f46e2c12bef810f3c84ff8dedfbc92de452df6aa8dd72d8d81195:d0e7202a01b24c4281ae2b50219e77df</t>
+  </si>
+  <si>
+    <t>f2faa5c41dccd077330963a1e5f35567dde0c2f53f62c50124807e71a8192387:5496a29a569f4626b052bbffee46b476</t>
+  </si>
+  <si>
+    <t>5039b4c519176a46029cf5bff773bc9af2e9094156d89272c1fa37cf70e166a4:5c0273ad056f4447a138cd7ed3d4411d</t>
+  </si>
+  <si>
+    <t>5eb22021e4c43dd353c1a49d92a984f709c6a4d7e823f8797f094c0af2be4b04:19846ec7aa694be09f03882d132897f6</t>
+  </si>
+  <si>
+    <t>41ad807f15c8f1e109330267e0b6542a5b571dbf88d15ba80658c0ce38693d18:e5d7171549934be1b2fdba3712ca7855</t>
+  </si>
+  <si>
+    <t>4048554b1add54d7870f50e05d82e8ff8051be977d2d324df2339b634d514457:aa72c7caac3f48d6a0d3c8a66a8d3d76</t>
+  </si>
+  <si>
+    <t>72510cfb3514e1be7193d017dd776559ab030b8d114d9263c846d65376132911:32da6c7b780544eb8c3d63d4b59812f1</t>
+  </si>
+  <si>
+    <t>d39d5168eefe45ed3c3acb900ef5f926d92a9dd032ae4e7c449e17e7d5413781:0695b2299560419a9061be2de6ff6dd6</t>
+  </si>
+  <si>
+    <t>d32040f0118a91997acabcf0a90bacd793582d27a6d5d121dfd34e5a702be444:4d558aa6663a4cc0b51340b7b118af13</t>
+  </si>
+  <si>
+    <t>3d9028f9b96e2da8a1a97453c90d3cc2ea8a6a7a2d4cbc6ab9a2a4e64f50f029:11b23dbf9b5a493e9a6df0b229d10ff4</t>
+  </si>
+  <si>
+    <t>455dd3a25569d56ccf81448f16012b25005b6d870fdf08f7b05d50193414b800:8fd0ef169d1944f1be64452dc3c19367</t>
+  </si>
+  <si>
+    <t>3b5a485e8a21eba9f0d8ee4b251db52fb27239b585909b2e22d6683fa4288704:1c82c210c4ad46a6a7e1745aebfe569d</t>
+  </si>
+  <si>
+    <t>aeaa3c32f0da679f1c55b2c312b2aa1f684530a7d5602fa743b479d2e943c732:a50a22695a6a4b3f9d32eb9a37e02a26</t>
+  </si>
+  <si>
+    <t>5ac0edee0cf0fa157ed80898c72d7f0dd05ad6e8002402380af715170433f4fd:e3c05b0633f1433099da0aea44ce7b67</t>
+  </si>
+  <si>
+    <t>755b33ef44c0415399c0dc9e55d4d294f7ac33e2636732118cab18e6a1baa3d8:86b858a426764cf89424fa6df4134c43</t>
+  </si>
+  <si>
+    <t>723cb519aa843e79b2f880f8897eb668bfc13be1abca2350ee896434fa843b43:864afcd0c6834356a99616b45aae3fba</t>
+  </si>
+  <si>
+    <t>3e483d52e616f47aa905ce59dff6aca99c77142d2d35b685ead35172c5d43498:d55047f5b3dc41589e33154cfed62e0f</t>
+  </si>
+  <si>
+    <t>b51ae03eb3c07492287a81934b63476a380bb9fef863c9c3f8204bca1cb20cd3:8ce36826e77d438b9a1b1fbbc3b41753</t>
+  </si>
+  <si>
+    <t>5a5ddd6499155a2a65750d7269cfddbb69168b9173c0032bfe2477e4bc547dd9:1cdea3985b514780992a805195803655</t>
+  </si>
+  <si>
+    <t>83ba537fc299b724161ca1569e383e657804b0a218de23195b6335d0b7628dfd:2648ec60283148c5954a3764a1886b10</t>
+  </si>
+  <si>
+    <t>2935284fa53577c99f5cd841bdf883430cfc55039f404e82c9ef789da9cb10ee:08402503d9674056a383375e3066a781</t>
+  </si>
+  <si>
+    <t>ad4255613308bcea3105f75d09e4c41220369763aa2a14ca3247974ec165953f:6fe4257816ce4a558efcd6f6c90158c4</t>
+  </si>
+  <si>
+    <t>e80d963ed4e8ceed126aa736bbcdc3b3575e622f0b8c4b7b688756639c34ccf6:cc7810042f8c4cc1bbe80994b2bcf577</t>
+  </si>
+  <si>
+    <t>30c4a6ab875c8c1781dca4f7a9079c06332de1bec8a8e9bcd3f406d8a5e5f046:fdcd0c1a15034471bd557af18ad0c289</t>
+  </si>
+  <si>
+    <t>9922fadb419c32fdfafda2b0e93062d263fd6b7eb9f6324673955fe982a15955:695b2fb3f88d4284a1adf4114b1d2c36</t>
+  </si>
+  <si>
+    <t>48bd588d2bf185347aa41c0c27b2e565771c160ee685f3fea2b022df4ce0d3a1:89d881b73ff041c9ac32c1735b5b28f0</t>
+  </si>
+  <si>
+    <t>b0ec738b03130af2b9be9e513c8450cd6c64b182827d9f1747e99993ee2c9735:5a49594a906e432facbbb14a03f7ee71</t>
+  </si>
+  <si>
+    <t>b1959cde5ace982bcecd0eaf3c185df89b94b9e040a76fab46cb4b20a806b431:e7c80777d037475888dc7af4e3fc7202</t>
+  </si>
+  <si>
+    <t>5e1054da0b4fa96d9044f499289aba4a5a58daee92bbc6d7583945076d134076:93d079c205d048859935bebd34bda305</t>
+  </si>
+  <si>
+    <t>c29e7f76937badd58c11e29eafd2deb87eb73b7313d2655bf9699ab959221bd3:aa40fac7f3bf418b8d5517c461c104fe</t>
+  </si>
+  <si>
+    <t>8fa22ae2ce63af418696ab2686e5789aad5a4d25cbd9ef1e21c68a270ede5825:68a97404ce8e414b9e98939d3ff652d6</t>
+  </si>
+  <si>
+    <t>e4c26009e57c2c24d825bd3af957faf7a17f4087ef9a1d074fd1db535ab31cbb:96360c341ffe4d8f9e9d09e4f4d8b56d</t>
+  </si>
+  <si>
+    <t>e6a14cf354da7d27c99d77f06ea04172ac64bb1cc794fe4e3c78efde7074c68d:b55cb3ff93a64c65a9caca4ed40df1d7</t>
+  </si>
+  <si>
+    <t>0c059be90ae3430113b5cf48837806b097d56a53b56f1b61662263f28a01cbd3:2a870ac77c1f4f708efae9afe2ec1c4a</t>
+  </si>
+  <si>
+    <t>e23f38222fa90c33ffe2f0368796150fb710cc146512cffa32e7fd44ccc10dd4:e6b8250632384f768b517a758457786d</t>
+  </si>
+  <si>
+    <t>bcc6d497f4484643b3fa49e1063d08a8ffbcb8f8758c1a3d4b9be7a80df4e543:3753be659d3042a19c15915dc74c2fa9</t>
+  </si>
+  <si>
+    <t>913cfd8db1ff33bf1e12ff69ce86762187849cdee64fad8d42cbe2124834974a:2d7b9153c1444d59bbda05e7e4eacade</t>
+  </si>
+  <si>
+    <t>c73547cc521dbec569e4789d14cb7230e2b0f58b9e8f4bafa2c55be26f1c868d:e923981942b249358884317b16cf1918</t>
+  </si>
+  <si>
+    <t>0264d1449352a2e9e9b0988aa142d88c25430cd10dfd73d639ae2ddf055c8cad:ea441c04678244a29481601c05cb5af2</t>
+  </si>
+  <si>
+    <t>1a9777f84ab457c70627b8e2219027e62652b2d485bf028a7ec1e14b05b1a30a:76e8a29042e747bcb0179043143cef8d</t>
+  </si>
+  <si>
+    <t>0294973faa899cd6e58a5828dc55027ce42df5bc0b79fd3094555433f94b3818:9a0ee8d943ff44848417a3ea39dd4d5b</t>
+  </si>
+  <si>
+    <t>bbfb3967a61ad2a1d75e6056524e7a09531f54054e0e60c4504de57409428050:cdff1f13cdbb435e80edfe754751b72b</t>
+  </si>
+  <si>
+    <t>3e302a680b2fe9c7f57163bd6824de142cce17bb9bcda886c99b7d92b5881361:8fb4e3c7d3fc4150ad2f1d4c24d00692</t>
+  </si>
+  <si>
+    <t>d0aac8e56ce7992355476f9d83514c14fd1e4b117e20df4a0ea716285adf7326:03e0a19630af4677acfec36464eeb292</t>
+  </si>
+  <si>
+    <t>09461129c8d8a920891884e6889893727dbc6494e373ebcce537279b52c91235:58aabd0155384cf49e00e7befd57a8ef</t>
+  </si>
+  <si>
+    <t>f2e7d226c2512c63f346e1a5546bb8d9e5d6f344569ab84adbc33b86664eb695:27640b894f59405688a9d4b50cdd9b90</t>
+  </si>
+  <si>
+    <t>c7730b69ccff29d9d7dfe041075cb95e30afb49f4c2c448e0ae9dab11c25a9c1:1d9296f1dade4d84bc31a68928df2d3b</t>
+  </si>
+  <si>
+    <t>fe263e9b98fae8223242422a8fbfc1a3a55137e0b579ce8253f54461c5399a3f:69e5f77879574c19b2e0ea36c23833dd</t>
+  </si>
+  <si>
+    <t>8ccc5079e35be54b298b17b9591044e86c45a4ca362471175e3cae705e87352d:c61db7df3ec84d5cbc13a4c221a2811d</t>
+  </si>
+  <si>
+    <t>7810c130bd836ba573d1cc3c3a389e9cb83db45513f045da33cf104fbe74f5e3:e15c523af444408d820d35f45adb2386</t>
+  </si>
+  <si>
+    <t>b''</t>
+  </si>
+  <si>
+    <t>b'78'</t>
+  </si>
+  <si>
+    <t>b'63'</t>
+  </si>
+  <si>
+    <t>b'72'</t>
+  </si>
+  <si>
+    <t>b'96'</t>
+  </si>
+  <si>
+    <t>b'27'</t>
+  </si>
+  <si>
+    <t>b'54'</t>
+  </si>
+  <si>
+    <t>b'86'</t>
+  </si>
+  <si>
+    <t>b'25'</t>
+  </si>
+  <si>
+    <t>b'49'</t>
+  </si>
+  <si>
+    <t>b'19'</t>
+  </si>
+  <si>
+    <t>b'76'</t>
+  </si>
+  <si>
+    <t>b'36'</t>
+  </si>
+  <si>
+    <t>b'60'</t>
+  </si>
+  <si>
+    <t>b'13'</t>
+  </si>
+  <si>
+    <t>b'52'</t>
+  </si>
+  <si>
+    <t>b'75'</t>
+  </si>
+  <si>
+    <t>b'4'</t>
+  </si>
+  <si>
+    <t>b'91'</t>
+  </si>
+  <si>
+    <t>b'11'</t>
+  </si>
+  <si>
+    <t>b'81'</t>
+  </si>
+  <si>
+    <t>b'97'</t>
+  </si>
+  <si>
+    <t>b'45'</t>
+  </si>
+  <si>
+    <t>b'37'</t>
+  </si>
+  <si>
+    <t>b'20'</t>
+  </si>
+  <si>
+    <t>b'55'</t>
+  </si>
+  <si>
+    <t>b'26'</t>
+  </si>
+  <si>
+    <t>b'59'</t>
+  </si>
+  <si>
+    <t>b'43'</t>
+  </si>
+  <si>
+    <t>b'50'</t>
+  </si>
+  <si>
+    <t>b'18'</t>
+  </si>
+  <si>
+    <t>b'17'</t>
+  </si>
+  <si>
+    <t>b'47'</t>
+  </si>
+  <si>
+    <t>b'69'</t>
+  </si>
+  <si>
+    <t>b'68'</t>
+  </si>
+  <si>
+    <t>b'53'</t>
+  </si>
+  <si>
+    <t>b'87'</t>
+  </si>
+  <si>
+    <t>b'80'</t>
+  </si>
+  <si>
+    <t>b'62'</t>
+  </si>
+  <si>
+    <t>b'51'</t>
+  </si>
+  <si>
+    <t>b'79'</t>
+  </si>
+  <si>
+    <t>b'32'</t>
+  </si>
+  <si>
+    <t>b'44'</t>
+  </si>
+  <si>
+    <t>b'33'</t>
+  </si>
+  <si>
+    <t>b'12'</t>
+  </si>
+  <si>
+    <t>b'2'</t>
+  </si>
+  <si>
+    <t>b'28'</t>
+  </si>
+  <si>
+    <t>b'74'</t>
+  </si>
+  <si>
+    <t>b'92'</t>
+  </si>
+  <si>
+    <t>b'71'</t>
+  </si>
+  <si>
+    <t>b'39'</t>
+  </si>
+  <si>
+    <t>b'99'</t>
+  </si>
+  <si>
+    <t>b'31'</t>
+  </si>
+  <si>
+    <t>b'85'</t>
+  </si>
+  <si>
+    <t>b'1'</t>
+  </si>
+  <si>
+    <t>b'41'</t>
+  </si>
+  <si>
+    <t>b'94'</t>
+  </si>
+  <si>
+    <t>b'73'</t>
+  </si>
+  <si>
+    <t>b'57'</t>
+  </si>
+  <si>
+    <t>b'83'</t>
+  </si>
+  <si>
+    <t>b'67'</t>
+  </si>
+  <si>
+    <t>b'70'</t>
+  </si>
+  <si>
+    <t>b'98'</t>
+  </si>
+  <si>
+    <t>b'29'</t>
+  </si>
+  <si>
+    <t>b'90'</t>
+  </si>
+  <si>
+    <t>b'9'</t>
+  </si>
+  <si>
+    <t>b'89'</t>
+  </si>
+  <si>
+    <t>b'93'</t>
+  </si>
+  <si>
+    <t>b'65'</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +555,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +563,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +881,1110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>101</v>
+      </c>
+      <c r="C63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>101</v>
+      </c>
+      <c r="C67" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>101</v>
+      </c>
+      <c r="C68" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>101</v>
+      </c>
+      <c r="C78" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>101</v>
+      </c>
+      <c r="C79" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>101</v>
+      </c>
+      <c r="C80" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>101</v>
+      </c>
+      <c r="C81" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>101</v>
+      </c>
+      <c r="C83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>101</v>
+      </c>
+      <c r="C84" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="C88" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>101</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B90" t="s">
+        <v>101</v>
+      </c>
+      <c r="C90" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="C92" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>101</v>
+      </c>
+      <c r="C94" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>101</v>
+      </c>
+      <c r="C95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C96" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>101</v>
+      </c>
+      <c r="C97" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>101</v>
+      </c>
+      <c r="C98" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>